--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>2.694736430729847</v>
       </c>
       <c r="C2">
-        <v>0.207771121768431</v>
+        <v>0.2077711217679621</v>
       </c>
       <c r="D2">
-        <v>0.3387232849636348</v>
+        <v>0.338723284963379</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.575758219283642</v>
+        <v>6.575758219283671</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5813392732959031</v>
+        <v>0.5813392732959173</v>
       </c>
       <c r="K2">
-        <v>1.818175810921602</v>
+        <v>1.81817581092163</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.29628026563239</v>
+        <v>2.296280265632276</v>
       </c>
       <c r="C3">
-        <v>0.1787334659702253</v>
+        <v>0.1787334659695432</v>
       </c>
       <c r="D3">
-        <v>0.2980387074830162</v>
+        <v>0.2980387074832578</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.731931687536189</v>
+        <v>5.731931687536132</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4949128913114222</v>
+        <v>0.4949128913114151</v>
       </c>
       <c r="K3">
-        <v>1.540741827293388</v>
+        <v>1.540741827293402</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.05955095432364</v>
+        <v>2.059550954323754</v>
       </c>
       <c r="C4">
         <v>0.1613749853513582</v>
       </c>
       <c r="D4">
-        <v>0.2738056291420889</v>
+        <v>0.2738056291419326</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.228835900573443</v>
+        <v>5.228835900573472</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4435255752284561</v>
+        <v>0.4435255752284206</v>
       </c>
       <c r="K4">
         <v>1.377161830597203</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964746523334213</v>
+        <v>1.964746523334355</v>
       </c>
       <c r="C5">
-        <v>0.1543973952740458</v>
+        <v>0.1543973952743727</v>
       </c>
       <c r="D5">
-        <v>0.2640853938625156</v>
+        <v>0.2640853938622456</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.026980070211067</v>
+        <v>5.026980070211039</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.422936440994313</v>
+        <v>0.4229364409943344</v>
       </c>
       <c r="K5">
-        <v>1.311894975623716</v>
+        <v>1.311894975623659</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.949096133529622</v>
+        <v>1.949096133529366</v>
       </c>
       <c r="C6">
-        <v>0.1532439807211574</v>
+        <v>0.1532439807211716</v>
       </c>
       <c r="D6">
-        <v>0.2624798312998564</v>
+        <v>0.2624798312998848</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.993636403267431</v>
+        <v>4.993636403267374</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4195369882500444</v>
+        <v>0.4195369882500586</v>
       </c>
       <c r="K6">
-        <v>1.301133522459253</v>
+        <v>1.30113352245921</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058266048619828</v>
+        <v>2.058266048619771</v>
       </c>
       <c r="C7">
-        <v>0.1612805212463542</v>
+        <v>0.16128052124688</v>
       </c>
       <c r="D7">
-        <v>0.2736739517531674</v>
+        <v>0.2736739517534232</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.226101564445543</v>
+        <v>5.226101564445599</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4432465654517017</v>
+        <v>0.4432465654517088</v>
       </c>
       <c r="K7">
-        <v>1.37627634929909</v>
+        <v>1.376276349299062</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.555491183974482</v>
+        <v>2.555491183974368</v>
       </c>
       <c r="C8">
-        <v>0.1976468972413983</v>
+        <v>0.1976468972415972</v>
       </c>
       <c r="D8">
-        <v>0.3245187803827179</v>
+        <v>0.3245187803827037</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5511452685692291</v>
+        <v>0.5511452685692149</v>
       </c>
       <c r="K8">
-        <v>1.720910549785557</v>
+        <v>1.720910549785515</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.611277885973323</v>
+        <v>3.611277885973209</v>
       </c>
       <c r="C9">
-        <v>0.273883049137865</v>
+        <v>0.2738830491378934</v>
       </c>
       <c r="D9">
-        <v>0.4319345174017712</v>
+        <v>0.4319345174015297</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.502834150589734</v>
+        <v>8.502834150589678</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7798863455667302</v>
+        <v>0.7798863455666378</v>
       </c>
       <c r="K9">
-        <v>2.467637108859023</v>
+        <v>2.467637108859037</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.467520565098084</v>
+        <v>4.467520565098027</v>
       </c>
       <c r="C10">
-        <v>0.3349153822518076</v>
+        <v>0.3349153822522055</v>
       </c>
       <c r="D10">
         <v>0.5186402532013688</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9651015412438682</v>
+        <v>0.9651015412438966</v>
       </c>
       <c r="K10">
-        <v>3.090825540793787</v>
+        <v>3.09082554079373</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.884172831531373</v>
+        <v>4.884172831531544</v>
       </c>
       <c r="C11">
-        <v>0.3643635191899364</v>
+        <v>0.3643635191908601</v>
       </c>
       <c r="D11">
-        <v>0.5607119133266281</v>
+        <v>0.5607119133266565</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14604285899134</v>
+        <v>11.14604285899128</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.055135984887272</v>
+        <v>1.055135984887244</v>
       </c>
       <c r="K11">
-        <v>3.400666016706239</v>
+        <v>3.400666016706282</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.046954096497529</v>
+        <v>5.046954096497643</v>
       </c>
       <c r="C12">
-        <v>0.3758215695141587</v>
+        <v>0.3758215695141445</v>
       </c>
       <c r="D12">
-        <v>0.5771273464227988</v>
+        <v>0.5771273464227704</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.48113812286033</v>
+        <v>11.4811381228605</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.090294058198069</v>
+        <v>1.09029405819814</v>
       </c>
       <c r="K12">
-        <v>3.523000254132086</v>
+        <v>3.523000254131958</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.011652526230307</v>
+        <v>5.011652526229739</v>
       </c>
       <c r="C13">
-        <v>0.3733390315948384</v>
+        <v>0.3733390315947673</v>
       </c>
       <c r="D13">
-        <v>0.5735684505851282</v>
+        <v>0.5735684505853271</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40852622454412</v>
+        <v>11.40852622454418</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.082670355643472</v>
+        <v>1.082670355643458</v>
       </c>
       <c r="K13">
         <v>3.496406842944339</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.897457159977932</v>
+        <v>4.89745715997816</v>
       </c>
       <c r="C14">
-        <v>0.3652996065165297</v>
+        <v>0.3652996065166008</v>
       </c>
       <c r="D14">
-        <v>0.5620520082450469</v>
+        <v>0.5620520082452742</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17341522097445</v>
+        <v>11.17341522097433</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.058005555801955</v>
+        <v>1.058005555801969</v>
       </c>
       <c r="K14">
-        <v>3.410621758374546</v>
+        <v>3.41062175837456</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.828199156788457</v>
+        <v>4.828199156788173</v>
       </c>
       <c r="C15">
-        <v>0.3604173518156699</v>
+        <v>0.3604173518157125</v>
       </c>
       <c r="D15">
-        <v>0.5550645212087773</v>
+        <v>0.555064521208152</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03065914610687</v>
+        <v>11.03065914610676</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043044292742735</v>
+        <v>1.043044292742707</v>
       </c>
       <c r="K15">
-        <v>3.358770820909101</v>
+        <v>3.358770820909015</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.440924567791512</v>
+        <v>4.440924567791285</v>
       </c>
       <c r="C16">
-        <v>0.3330299328239761</v>
+        <v>0.3330299328239334</v>
       </c>
       <c r="D16">
-        <v>0.5159520528313521</v>
+        <v>0.5159520528312385</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23015166679738</v>
+        <v>10.23015166679758</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9593523083366478</v>
+        <v>0.9593523083366051</v>
       </c>
       <c r="K16">
-        <v>3.071201880689685</v>
+        <v>3.071201880689614</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.210985265063641</v>
+        <v>4.210985265063528</v>
       </c>
       <c r="C17">
-        <v>0.3167012363912391</v>
+        <v>0.3167012363911681</v>
       </c>
       <c r="D17">
-        <v>0.4926976170618786</v>
+        <v>0.4926976170617934</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.753089463980899</v>
+        <v>9.753089463981013</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9096363054436196</v>
+        <v>0.9096363054436267</v>
       </c>
       <c r="K17">
-        <v>2.90228247949716</v>
+        <v>2.902282479497103</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.081204026767125</v>
+        <v>4.081204026767068</v>
       </c>
       <c r="C18">
-        <v>0.3074632928543934</v>
+        <v>0.3074632928535834</v>
       </c>
       <c r="D18">
-        <v>0.4795619647251783</v>
+        <v>0.4795619647254341</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.483256928960429</v>
+        <v>9.483256928960373</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8815678222137464</v>
+        <v>0.8815678222136967</v>
       </c>
       <c r="K18">
-        <v>2.807513151629152</v>
+        <v>2.807513151629095</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.037658572091686</v>
+        <v>4.037658572092027</v>
       </c>
       <c r="C19">
-        <v>0.3043601925932364</v>
+        <v>0.3043601925922701</v>
       </c>
       <c r="D19">
-        <v>0.4751528585786389</v>
+        <v>0.475152858578781</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.392628637956278</v>
+        <v>9.392628637956335</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0.8721487270145829</v>
       </c>
       <c r="K19">
-        <v>2.775805291184582</v>
+        <v>2.775805291184597</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235199687984561</v>
+        <v>4.235199687984618</v>
       </c>
       <c r="C20">
-        <v>0.3184231084646001</v>
+        <v>0.3184231084646569</v>
       </c>
       <c r="D20">
-        <v>0.4951476110000215</v>
+        <v>0.4951476110000783</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.803389079261251</v>
+        <v>9.803389079261137</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.914872650962856</v>
+        <v>0.914872650962792</v>
       </c>
       <c r="K20">
-        <v>2.9200094711113</v>
+        <v>2.920009471111229</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.930852866148086</v>
+        <v>4.93085286614803</v>
       </c>
       <c r="C21">
-        <v>0.3676520629833107</v>
+        <v>0.367652062983737</v>
       </c>
       <c r="D21">
-        <v>0.5654205390010816</v>
+        <v>0.5654205390006553</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24220693678205</v>
+        <v>11.242206936782</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.065219128545024</v>
+        <v>1.065219128544982</v>
       </c>
       <c r="K21">
-        <v>3.435671304273669</v>
+        <v>3.435671304273654</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.415450133619686</v>
+        <v>5.415450133619345</v>
       </c>
       <c r="C22">
-        <v>0.4016562954377321</v>
+        <v>0.4016562954377036</v>
       </c>
       <c r="D22">
         <v>0.6142420123032082</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.23713020059125</v>
+        <v>12.23713020059131</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.16984481635987</v>
+        <v>1.169844816359827</v>
       </c>
       <c r="K22">
-        <v>3.802766369997045</v>
+        <v>3.802766369996988</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.153613250947558</v>
+        <v>5.153613250947785</v>
       </c>
       <c r="C23">
-        <v>0.3833143188542749</v>
+        <v>0.3833143188547865</v>
       </c>
       <c r="D23">
-        <v>0.5878765706755757</v>
+        <v>0.5878765706754052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70032697599294</v>
+        <v>11.70032697599299</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.113325162804415</v>
+        <v>1.113325162804372</v>
       </c>
       <c r="K23">
-        <v>3.603565875773469</v>
+        <v>3.603565875773427</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.224244906863362</v>
+        <v>4.224244906863532</v>
       </c>
       <c r="C24">
-        <v>0.3176441886449908</v>
+        <v>0.3176441886455166</v>
       </c>
       <c r="D24">
-        <v>0.4940392485717098</v>
+        <v>0.4940392485715677</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780634942184008</v>
+        <v>9.780634942183809</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9125037150387953</v>
+        <v>0.9125037150388167</v>
       </c>
       <c r="K24">
-        <v>2.911987880575381</v>
+        <v>2.91198788057541</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.314193104891501</v>
+        <v>3.314193104891444</v>
       </c>
       <c r="C25">
-        <v>0.2525468503957029</v>
+        <v>0.252546850396044</v>
       </c>
       <c r="D25">
-        <v>0.4017705024088087</v>
+        <v>0.4017705024089366</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.88032844720172</v>
+        <v>7.880328447201833</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7155644307080635</v>
+        <v>0.7155644307080351</v>
       </c>
       <c r="K25">
-        <v>2.255272942836498</v>
+        <v>2.255272942836527</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>2.694736430729847</v>
       </c>
       <c r="C2">
-        <v>0.2077711217679621</v>
+        <v>0.207771121768431</v>
       </c>
       <c r="D2">
-        <v>0.338723284963379</v>
+        <v>0.3387232849636348</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.575758219283671</v>
+        <v>6.575758219283642</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5813392732959173</v>
+        <v>0.5813392732959031</v>
       </c>
       <c r="K2">
-        <v>1.81817581092163</v>
+        <v>1.818175810921602</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.296280265632276</v>
+        <v>2.29628026563239</v>
       </c>
       <c r="C3">
-        <v>0.1787334659695432</v>
+        <v>0.1787334659702253</v>
       </c>
       <c r="D3">
-        <v>0.2980387074832578</v>
+        <v>0.2980387074830162</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.731931687536132</v>
+        <v>5.731931687536189</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4949128913114151</v>
+        <v>0.4949128913114222</v>
       </c>
       <c r="K3">
-        <v>1.540741827293402</v>
+        <v>1.540741827293388</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.059550954323754</v>
+        <v>2.05955095432364</v>
       </c>
       <c r="C4">
         <v>0.1613749853513582</v>
       </c>
       <c r="D4">
-        <v>0.2738056291419326</v>
+        <v>0.2738056291420889</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.228835900573472</v>
+        <v>5.228835900573443</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4435255752284206</v>
+        <v>0.4435255752284561</v>
       </c>
       <c r="K4">
         <v>1.377161830597203</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964746523334355</v>
+        <v>1.964746523334213</v>
       </c>
       <c r="C5">
-        <v>0.1543973952743727</v>
+        <v>0.1543973952740458</v>
       </c>
       <c r="D5">
-        <v>0.2640853938622456</v>
+        <v>0.2640853938625156</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.026980070211039</v>
+        <v>5.026980070211067</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4229364409943344</v>
+        <v>0.422936440994313</v>
       </c>
       <c r="K5">
-        <v>1.311894975623659</v>
+        <v>1.311894975623716</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.949096133529366</v>
+        <v>1.949096133529622</v>
       </c>
       <c r="C6">
-        <v>0.1532439807211716</v>
+        <v>0.1532439807211574</v>
       </c>
       <c r="D6">
-        <v>0.2624798312998848</v>
+        <v>0.2624798312998564</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.993636403267374</v>
+        <v>4.993636403267431</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4195369882500586</v>
+        <v>0.4195369882500444</v>
       </c>
       <c r="K6">
-        <v>1.30113352245921</v>
+        <v>1.301133522459253</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058266048619771</v>
+        <v>2.058266048619828</v>
       </c>
       <c r="C7">
-        <v>0.16128052124688</v>
+        <v>0.1612805212463542</v>
       </c>
       <c r="D7">
-        <v>0.2736739517534232</v>
+        <v>0.2736739517531674</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.226101564445599</v>
+        <v>5.226101564445543</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4432465654517088</v>
+        <v>0.4432465654517017</v>
       </c>
       <c r="K7">
-        <v>1.376276349299062</v>
+        <v>1.37627634929909</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.555491183974368</v>
+        <v>2.555491183974482</v>
       </c>
       <c r="C8">
-        <v>0.1976468972415972</v>
+        <v>0.1976468972413983</v>
       </c>
       <c r="D8">
-        <v>0.3245187803827037</v>
+        <v>0.3245187803827179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5511452685692149</v>
+        <v>0.5511452685692291</v>
       </c>
       <c r="K8">
-        <v>1.720910549785515</v>
+        <v>1.720910549785557</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.611277885973209</v>
+        <v>3.611277885973323</v>
       </c>
       <c r="C9">
-        <v>0.2738830491378934</v>
+        <v>0.273883049137865</v>
       </c>
       <c r="D9">
-        <v>0.4319345174015297</v>
+        <v>0.4319345174017712</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.502834150589678</v>
+        <v>8.502834150589734</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7798863455666378</v>
+        <v>0.7798863455667302</v>
       </c>
       <c r="K9">
-        <v>2.467637108859037</v>
+        <v>2.467637108859023</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.467520565098027</v>
+        <v>4.467520565098084</v>
       </c>
       <c r="C10">
-        <v>0.3349153822522055</v>
+        <v>0.3349153822518076</v>
       </c>
       <c r="D10">
         <v>0.5186402532013688</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9651015412438966</v>
+        <v>0.9651015412438682</v>
       </c>
       <c r="K10">
-        <v>3.09082554079373</v>
+        <v>3.090825540793787</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.884172831531544</v>
+        <v>4.884172831531373</v>
       </c>
       <c r="C11">
-        <v>0.3643635191908601</v>
+        <v>0.3643635191899364</v>
       </c>
       <c r="D11">
-        <v>0.5607119133266565</v>
+        <v>0.5607119133266281</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14604285899128</v>
+        <v>11.14604285899134</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.055135984887244</v>
+        <v>1.055135984887272</v>
       </c>
       <c r="K11">
-        <v>3.400666016706282</v>
+        <v>3.400666016706239</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.046954096497643</v>
+        <v>5.046954096497529</v>
       </c>
       <c r="C12">
-        <v>0.3758215695141445</v>
+        <v>0.3758215695141587</v>
       </c>
       <c r="D12">
-        <v>0.5771273464227704</v>
+        <v>0.5771273464227988</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.4811381228605</v>
+        <v>11.48113812286033</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.09029405819814</v>
+        <v>1.090294058198069</v>
       </c>
       <c r="K12">
-        <v>3.523000254131958</v>
+        <v>3.523000254132086</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.011652526229739</v>
+        <v>5.011652526230307</v>
       </c>
       <c r="C13">
-        <v>0.3733390315947673</v>
+        <v>0.3733390315948384</v>
       </c>
       <c r="D13">
-        <v>0.5735684505853271</v>
+        <v>0.5735684505851282</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40852622454418</v>
+        <v>11.40852622454412</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.082670355643458</v>
+        <v>1.082670355643472</v>
       </c>
       <c r="K13">
         <v>3.496406842944339</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.89745715997816</v>
+        <v>4.897457159977932</v>
       </c>
       <c r="C14">
-        <v>0.3652996065166008</v>
+        <v>0.3652996065165297</v>
       </c>
       <c r="D14">
-        <v>0.5620520082452742</v>
+        <v>0.5620520082450469</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17341522097433</v>
+        <v>11.17341522097445</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.058005555801969</v>
+        <v>1.058005555801955</v>
       </c>
       <c r="K14">
-        <v>3.41062175837456</v>
+        <v>3.410621758374546</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.828199156788173</v>
+        <v>4.828199156788457</v>
       </c>
       <c r="C15">
-        <v>0.3604173518157125</v>
+        <v>0.3604173518156699</v>
       </c>
       <c r="D15">
-        <v>0.555064521208152</v>
+        <v>0.5550645212087773</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03065914610676</v>
+        <v>11.03065914610687</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043044292742707</v>
+        <v>1.043044292742735</v>
       </c>
       <c r="K15">
-        <v>3.358770820909015</v>
+        <v>3.358770820909101</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.440924567791285</v>
+        <v>4.440924567791512</v>
       </c>
       <c r="C16">
-        <v>0.3330299328239334</v>
+        <v>0.3330299328239761</v>
       </c>
       <c r="D16">
-        <v>0.5159520528312385</v>
+        <v>0.5159520528313521</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23015166679758</v>
+        <v>10.23015166679738</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9593523083366051</v>
+        <v>0.9593523083366478</v>
       </c>
       <c r="K16">
-        <v>3.071201880689614</v>
+        <v>3.071201880689685</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.210985265063528</v>
+        <v>4.210985265063641</v>
       </c>
       <c r="C17">
-        <v>0.3167012363911681</v>
+        <v>0.3167012363912391</v>
       </c>
       <c r="D17">
-        <v>0.4926976170617934</v>
+        <v>0.4926976170618786</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.753089463981013</v>
+        <v>9.753089463980899</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9096363054436267</v>
+        <v>0.9096363054436196</v>
       </c>
       <c r="K17">
-        <v>2.902282479497103</v>
+        <v>2.90228247949716</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.081204026767068</v>
+        <v>4.081204026767125</v>
       </c>
       <c r="C18">
-        <v>0.3074632928535834</v>
+        <v>0.3074632928543934</v>
       </c>
       <c r="D18">
-        <v>0.4795619647254341</v>
+        <v>0.4795619647251783</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.483256928960373</v>
+        <v>9.483256928960429</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8815678222136967</v>
+        <v>0.8815678222137464</v>
       </c>
       <c r="K18">
-        <v>2.807513151629095</v>
+        <v>2.807513151629152</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.037658572092027</v>
+        <v>4.037658572091686</v>
       </c>
       <c r="C19">
-        <v>0.3043601925922701</v>
+        <v>0.3043601925932364</v>
       </c>
       <c r="D19">
-        <v>0.475152858578781</v>
+        <v>0.4751528585786389</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.392628637956335</v>
+        <v>9.392628637956278</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0.8721487270145829</v>
       </c>
       <c r="K19">
-        <v>2.775805291184597</v>
+        <v>2.775805291184582</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235199687984618</v>
+        <v>4.235199687984561</v>
       </c>
       <c r="C20">
-        <v>0.3184231084646569</v>
+        <v>0.3184231084646001</v>
       </c>
       <c r="D20">
-        <v>0.4951476110000783</v>
+        <v>0.4951476110000215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.803389079261137</v>
+        <v>9.803389079261251</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.914872650962792</v>
+        <v>0.914872650962856</v>
       </c>
       <c r="K20">
-        <v>2.920009471111229</v>
+        <v>2.9200094711113</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.93085286614803</v>
+        <v>4.930852866148086</v>
       </c>
       <c r="C21">
-        <v>0.367652062983737</v>
+        <v>0.3676520629833107</v>
       </c>
       <c r="D21">
-        <v>0.5654205390006553</v>
+        <v>0.5654205390010816</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.242206936782</v>
+        <v>11.24220693678205</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.065219128544982</v>
+        <v>1.065219128545024</v>
       </c>
       <c r="K21">
-        <v>3.435671304273654</v>
+        <v>3.435671304273669</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.415450133619345</v>
+        <v>5.415450133619686</v>
       </c>
       <c r="C22">
-        <v>0.4016562954377036</v>
+        <v>0.4016562954377321</v>
       </c>
       <c r="D22">
         <v>0.6142420123032082</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.23713020059131</v>
+        <v>12.23713020059125</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.169844816359827</v>
+        <v>1.16984481635987</v>
       </c>
       <c r="K22">
-        <v>3.802766369996988</v>
+        <v>3.802766369997045</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.153613250947785</v>
+        <v>5.153613250947558</v>
       </c>
       <c r="C23">
-        <v>0.3833143188547865</v>
+        <v>0.3833143188542749</v>
       </c>
       <c r="D23">
-        <v>0.5878765706754052</v>
+        <v>0.5878765706755757</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70032697599299</v>
+        <v>11.70032697599294</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.113325162804372</v>
+        <v>1.113325162804415</v>
       </c>
       <c r="K23">
-        <v>3.603565875773427</v>
+        <v>3.603565875773469</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.224244906863532</v>
+        <v>4.224244906863362</v>
       </c>
       <c r="C24">
-        <v>0.3176441886455166</v>
+        <v>0.3176441886449908</v>
       </c>
       <c r="D24">
-        <v>0.4940392485715677</v>
+        <v>0.4940392485717098</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780634942183809</v>
+        <v>9.780634942184008</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9125037150388167</v>
+        <v>0.9125037150387953</v>
       </c>
       <c r="K24">
-        <v>2.91198788057541</v>
+        <v>2.911987880575381</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.314193104891444</v>
+        <v>3.314193104891501</v>
       </c>
       <c r="C25">
-        <v>0.252546850396044</v>
+        <v>0.2525468503957029</v>
       </c>
       <c r="D25">
-        <v>0.4017705024089366</v>
+        <v>0.4017705024088087</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.880328447201833</v>
+        <v>7.88032844720172</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7155644307080351</v>
+        <v>0.7155644307080635</v>
       </c>
       <c r="K25">
-        <v>2.255272942836527</v>
+        <v>2.255272942836498</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.694736430729847</v>
+        <v>2.665927399305076</v>
       </c>
       <c r="C2">
-        <v>0.207771121768431</v>
+        <v>0.198508653428604</v>
       </c>
       <c r="D2">
-        <v>0.3387232849636348</v>
+        <v>0.3421727659546576</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.575758219283642</v>
+        <v>6.581100746181022</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000770274960391711</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5813392732959031</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.818175810921602</v>
+        <v>0.5729100715101438</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.809056247029162</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.29628026563239</v>
+        <v>2.272620921536713</v>
       </c>
       <c r="C3">
-        <v>0.1787334659702253</v>
+        <v>0.1702509762116193</v>
       </c>
       <c r="D3">
-        <v>0.2980387074830162</v>
+        <v>0.3018168132176982</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.731931687536189</v>
+        <v>5.744157031379359</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007821753885219467</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4949128913114222</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.540741827293388</v>
+        <v>0.4877851880385649</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.533285407913539</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.05955095432364</v>
+        <v>2.038992782151865</v>
       </c>
       <c r="C4">
-        <v>0.1613749853513582</v>
+        <v>0.1533742261006097</v>
       </c>
       <c r="D4">
-        <v>0.2738056291420889</v>
+        <v>0.2777731735123723</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.228835900573443</v>
+        <v>5.245113962935704</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007895711031776811</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4435255752284561</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.377161830597203</v>
+        <v>0.4371864979603401</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.370637267954777</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964746523334213</v>
+        <v>1.945442821421864</v>
       </c>
       <c r="C5">
-        <v>0.1543973952740458</v>
+        <v>0.1465941417000494</v>
       </c>
       <c r="D5">
-        <v>0.2640853938625156</v>
+        <v>0.2681276369293641</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.026980070211067</v>
+        <v>5.044876198324857</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007926126272677515</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.422936440994313</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.311894975623716</v>
+        <v>0.4169174413098489</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.305732598358148</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.949096133529622</v>
+        <v>1.930000329187664</v>
       </c>
       <c r="C6">
-        <v>0.1532439807211574</v>
+        <v>0.145473607939465</v>
       </c>
       <c r="D6">
-        <v>0.2624798312998564</v>
+        <v>0.2665343426737508</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.993636403267431</v>
+        <v>5.011799451692781</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007931194874815381</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4195369882500444</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.301133522459253</v>
+        <v>0.4135710938434798</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.295030348758985</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058266048619828</v>
+        <v>2.037724825143698</v>
       </c>
       <c r="C7">
-        <v>0.1612805212463542</v>
+        <v>0.1532824201905214</v>
       </c>
       <c r="D7">
-        <v>0.2736739517531674</v>
+        <v>0.2776425129373195</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.226101564445543</v>
+        <v>5.242401571979258</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007896120035548432</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4432465654517017</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.37627634929909</v>
+        <v>0.4369118084987065</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.369756736594198</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.555491183974482</v>
+        <v>2.528474368013065</v>
       </c>
       <c r="C8">
-        <v>0.1976468972413983</v>
+        <v>0.1886530986733703</v>
       </c>
       <c r="D8">
-        <v>0.3245187803827179</v>
+        <v>0.3280845330254607</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.281291793869173</v>
+        <v>6.289050234983279</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007743632791763241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5511452685692291</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.720910549785557</v>
+        <v>0.5431678968083204</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.712386308571837</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.611277885973323</v>
+        <v>3.570729886105255</v>
       </c>
       <c r="C9">
-        <v>0.273883049137865</v>
+        <v>0.2629320386624983</v>
       </c>
       <c r="D9">
-        <v>0.4319345174017712</v>
+        <v>0.4345774094956738</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.502834150589734</v>
+        <v>8.491878277309638</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007448741776857544</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7798863455667302</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.467637108859023</v>
+        <v>0.7685263978103762</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.454170489602049</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.467520565098084</v>
+        <v>4.415846457534087</v>
       </c>
       <c r="C10">
-        <v>0.3349153822518076</v>
+        <v>0.3224749992217397</v>
       </c>
       <c r="D10">
-        <v>0.5186402532013688</v>
+        <v>0.5204568803444261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.28524688333079</v>
+        <v>10.25821646229167</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007229529979413798</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9651015412438682</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.090825540793787</v>
+        <v>0.9510086098301969</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.072485463023014</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.884172831531373</v>
+        <v>4.826942195880008</v>
       </c>
       <c r="C11">
-        <v>0.3643635191899364</v>
+        <v>0.3512190377934701</v>
       </c>
       <c r="D11">
-        <v>0.5607119133266281</v>
+        <v>0.5620971226702238</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14604285899134</v>
+        <v>11.11080344909664</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000712770022544021</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.055135984887272</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.400666016706239</v>
+        <v>1.039694191327683</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.37959994521448</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.046954096497529</v>
+        <v>4.987517478357461</v>
       </c>
       <c r="C12">
-        <v>0.3758215695141587</v>
+        <v>0.3624048407215668</v>
       </c>
       <c r="D12">
-        <v>0.5771273464227988</v>
+        <v>0.5783382182941068</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.48113812286033</v>
+        <v>11.44261125280417</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007088660069559138</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.090294058198069</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.523000254132086</v>
+        <v>1.074319701028642</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.500795656287977</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.011652526230307</v>
+        <v>4.952696165491432</v>
       </c>
       <c r="C13">
-        <v>0.3733390315948384</v>
+        <v>0.3599812210873239</v>
       </c>
       <c r="D13">
-        <v>0.5735684505851282</v>
+        <v>0.5748174179842636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40852622454412</v>
+        <v>11.37071634616922</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007097092769990445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.082670355643472</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.496406842944339</v>
+        <v>1.066811798865132</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.474452878268536</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.897457159977932</v>
+        <v>4.840047299841217</v>
       </c>
       <c r="C14">
-        <v>0.3652996065165297</v>
+        <v>0.3521328521835869</v>
       </c>
       <c r="D14">
-        <v>0.5620520082450469</v>
+        <v>0.5634231160629497</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17341522097445</v>
+        <v>11.13790929515852</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007124499175379277</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.058005555801955</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.410621758374546</v>
+        <v>1.042520431851329</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.389464396770677</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.828199156788457</v>
+        <v>4.771722182847384</v>
       </c>
       <c r="C15">
-        <v>0.3604173518156699</v>
+        <v>0.347366829789749</v>
       </c>
       <c r="D15">
-        <v>0.5550645212087773</v>
+        <v>0.5565089059059858</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03065914610687</v>
+        <v>10.99653933099182</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007141217838189633</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043044292742735</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.358770820909101</v>
+        <v>1.027784829808212</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.338086310676019</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.440924567791512</v>
+        <v>4.389601280336649</v>
       </c>
       <c r="C16">
-        <v>0.3330299328239761</v>
+        <v>0.3206348880590753</v>
       </c>
       <c r="D16">
-        <v>0.5159520528313521</v>
+        <v>0.5177955274152453</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23015166679738</v>
+        <v>10.20363584271939</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007236128419081906</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9593523083366478</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3.071201880689685</v>
+        <v>0.9453448964297593</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.053027222951272</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.210985265063641</v>
+        <v>4.162678532281063</v>
       </c>
       <c r="C17">
-        <v>0.3167012363912391</v>
+        <v>0.3047003828204993</v>
       </c>
       <c r="D17">
-        <v>0.4926976170618786</v>
+        <v>0.4947699123549967</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.753089463980899</v>
+        <v>9.730978945580773</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007293702391047138</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9096363054436196</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.90228247949716</v>
+        <v>0.8963659939026272</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.885498062392998</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.081204026767125</v>
+        <v>4.034588101292002</v>
       </c>
       <c r="C18">
-        <v>0.3074632928543934</v>
+        <v>0.2956868002150372</v>
       </c>
       <c r="D18">
-        <v>0.4795619647251783</v>
+        <v>0.4817608737825765</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.483256928960429</v>
+        <v>9.463599693933787</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007326631835773685</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8815678222137464</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.807513151629152</v>
+        <v>0.8687120392652758</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.791483082734459</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.037658572091686</v>
+        <v>3.991608274730538</v>
       </c>
       <c r="C19">
-        <v>0.3043601925932364</v>
+        <v>0.2926593043762153</v>
       </c>
       <c r="D19">
-        <v>0.4751528585786389</v>
+        <v>0.4773938515910743</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.392628637956278</v>
+        <v>9.373789436239065</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007337753893312815</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8721487270145829</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.775805291184582</v>
+        <v>0.8594318381588408</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.760023630764834</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.235199687984561</v>
+        <v>4.186576599981606</v>
       </c>
       <c r="C20">
-        <v>0.3184231084646001</v>
+        <v>0.3063805488930029</v>
       </c>
       <c r="D20">
-        <v>0.4951476110000215</v>
+        <v>0.497196083182871</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.803389079261251</v>
+        <v>9.780818244749099</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007287593868510532</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.914872650962856</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.9200094711113</v>
+        <v>0.9015248898144108</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.903081939201343</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.930852866148086</v>
+        <v>4.872991834211007</v>
       </c>
       <c r="C21">
-        <v>0.3676520629833107</v>
+        <v>0.3544293605867779</v>
       </c>
       <c r="D21">
-        <v>0.5654205390010816</v>
+        <v>0.5667560988233333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24220693678205</v>
+        <v>11.20602964062755</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007116463928354219</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.065219128545024</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.435671304273669</v>
+        <v>1.049624975450328</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.414283189473593</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.415450133619686</v>
+        <v>5.350932842880241</v>
       </c>
       <c r="C22">
-        <v>0.4016562954377321</v>
+        <v>0.3876282360969583</v>
       </c>
       <c r="D22">
-        <v>0.6142420123032082</v>
+        <v>0.6150452923301089</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.23713020059125</v>
+        <v>12.19097709559048</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007001701656366155</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.16984481635987</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.802766369997045</v>
+        <v>1.152650246891113</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.777814444265118</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.153613250947558</v>
+        <v>5.092719038451037</v>
       </c>
       <c r="C23">
-        <v>0.3833143188542749</v>
+        <v>0.3697199692936834</v>
       </c>
       <c r="D23">
-        <v>0.5878765706755757</v>
+        <v>0.5889713525965306</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70032697599294</v>
+        <v>11.65961976619127</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007063292670189622</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.113325162804415</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.603565875773469</v>
+        <v>1.096999833098252</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.580591089657432</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.224244906863362</v>
+        <v>4.17576497627681</v>
       </c>
       <c r="C24">
-        <v>0.3176441886449908</v>
+        <v>0.3056204912841736</v>
       </c>
       <c r="D24">
-        <v>0.4940392485717098</v>
+        <v>0.4960985063581518</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780634942184008</v>
+        <v>9.75827246039367</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007290356049042031</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9125037150387953</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.911987880575381</v>
+        <v>0.8991909971823588</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.895125188539936</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.314193104891501</v>
+        <v>3.277452461015912</v>
       </c>
       <c r="C25">
-        <v>0.2525468503957029</v>
+        <v>0.2421301346319353</v>
       </c>
       <c r="D25">
-        <v>0.4017705024088087</v>
+        <v>0.4046830351760917</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.88032844720172</v>
+        <v>7.874742118275321</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007528533804109076</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7155644307080635</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.255272942836498</v>
+        <v>0.7051496405671216</v>
       </c>
       <c r="L25">
+        <v>2.243302867232828</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.665927399305076</v>
+        <v>3.3700293885517</v>
       </c>
       <c r="C2">
-        <v>0.198508653428604</v>
+        <v>0.8868371399018145</v>
       </c>
       <c r="D2">
-        <v>0.3421727659546576</v>
+        <v>0.02944181019732639</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.581100746181022</v>
+        <v>2.296856555172738</v>
       </c>
       <c r="G2">
-        <v>0.000770274960391711</v>
+        <v>0.0007633532177779807</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5729100715101438</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.809056247029162</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.835565016320857</v>
+      </c>
+      <c r="N2">
+        <v>1.035388841059671</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272620921536713</v>
+        <v>2.899256738355348</v>
       </c>
       <c r="C3">
-        <v>0.1702509762116193</v>
+        <v>0.762934022119623</v>
       </c>
       <c r="D3">
-        <v>0.3018168132176982</v>
+        <v>0.02881020511706112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.744157031379359</v>
+        <v>2.02416027669409</v>
       </c>
       <c r="G3">
-        <v>0.0007821753885219467</v>
+        <v>0.0007729563436944706</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4877851880385649</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.533285407913539</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.406366952238571</v>
+      </c>
+      <c r="N3">
+        <v>1.038469393353793</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.038992782151865</v>
+        <v>2.615430934151959</v>
       </c>
       <c r="C4">
-        <v>0.1533742261006097</v>
+        <v>0.6881486292749628</v>
       </c>
       <c r="D4">
-        <v>0.2777731735123723</v>
+        <v>0.0285390674835746</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.245113962935704</v>
+        <v>1.862598244594921</v>
       </c>
       <c r="G4">
-        <v>0.0007895711031776811</v>
+        <v>0.0007789725888971635</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4371864979603401</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.370637267954777</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.153327459207176</v>
+      </c>
+      <c r="N4">
+        <v>1.042779194294937</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945442821421864</v>
+        <v>2.500882296704219</v>
       </c>
       <c r="C5">
-        <v>0.1465941417000494</v>
+        <v>0.6579429606837266</v>
       </c>
       <c r="D5">
-        <v>0.2681276369293641</v>
+        <v>0.02845448574520759</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.044876198324857</v>
+        <v>1.798050091021636</v>
       </c>
       <c r="G5">
-        <v>0.0007926126272677515</v>
+        <v>0.0007814573510471767</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4169174413098489</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.305732598358148</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.052377256063892</v>
+      </c>
+      <c r="N5">
+        <v>1.045087313570335</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.930000329187664</v>
+        <v>2.481923250050897</v>
       </c>
       <c r="C6">
-        <v>0.145473607939465</v>
+        <v>0.6529421420337371</v>
       </c>
       <c r="D6">
-        <v>0.2665343426737508</v>
+        <v>0.02844191397841911</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.011799451692781</v>
+        <v>1.787404716963806</v>
       </c>
       <c r="G6">
-        <v>0.0007931194874815381</v>
+        <v>0.0007818720226771198</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4135710938434798</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.295030348758985</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.035732944448014</v>
+      </c>
+      <c r="N6">
+        <v>1.045502385581813</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.037724825143698</v>
+        <v>2.613881838826615</v>
       </c>
       <c r="C7">
-        <v>0.1532824201905214</v>
+        <v>0.6877402402813004</v>
       </c>
       <c r="D7">
-        <v>0.2776425129373195</v>
+        <v>0.02853782608807975</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.242401571979258</v>
+        <v>1.86172273667944</v>
       </c>
       <c r="G7">
-        <v>0.0007896120035548432</v>
+        <v>0.0007790059616522601</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4369118084987065</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.369756736594198</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.151957811153451</v>
+      </c>
+      <c r="N7">
+        <v>1.042808157518152</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.528474368013065</v>
+        <v>3.206492625352439</v>
       </c>
       <c r="C8">
-        <v>0.1886530986733703</v>
+        <v>0.8438124226410082</v>
       </c>
       <c r="D8">
-        <v>0.3280845330254607</v>
+        <v>0.02919760561008289</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.289050234983279</v>
+        <v>2.201491889662776</v>
       </c>
       <c r="G8">
-        <v>0.0007743632791763241</v>
+        <v>0.0007666413793142569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5431678968083204</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.712386308571837</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.685090359225356</v>
+      </c>
+      <c r="N8">
+        <v>1.035912999910735</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.570729886105255</v>
+        <v>4.42053260227965</v>
       </c>
       <c r="C9">
-        <v>0.2629320386624983</v>
+        <v>1.162941073122965</v>
       </c>
       <c r="D9">
-        <v>0.4345774094956738</v>
+        <v>0.03160056721628024</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.491878277309638</v>
+        <v>2.92415847900179</v>
       </c>
       <c r="G9">
-        <v>0.0007448741776857544</v>
+        <v>0.0007431908806719757</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7685263978103762</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.454170489602049</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.840319500272173</v>
+      </c>
+      <c r="N9">
+        <v>1.044544608574242</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.415846457534087</v>
+        <v>5.361106716836787</v>
       </c>
       <c r="C10">
-        <v>0.3224749992217397</v>
+        <v>1.409963671626997</v>
       </c>
       <c r="D10">
-        <v>0.5204568803444261</v>
+        <v>0.03435673405343209</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.25821646229167</v>
+        <v>3.505654502712758</v>
       </c>
       <c r="G10">
-        <v>0.0007229529979413798</v>
+        <v>0.0007261870445442765</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9510086098301969</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.072485463023014</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.804633835762843</v>
+      </c>
+      <c r="N10">
+        <v>1.069388106052969</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.826942195880008</v>
+        <v>5.804200356438116</v>
       </c>
       <c r="C11">
-        <v>0.3512190377934701</v>
+        <v>1.526323168465922</v>
       </c>
       <c r="D11">
-        <v>0.5620971226702238</v>
+        <v>0.03591934810015118</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.11080344909664</v>
+        <v>3.785749973163661</v>
       </c>
       <c r="G11">
-        <v>0.000712770022544021</v>
+        <v>0.0007184249485191538</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.039694191327683</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.37959994521448</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.284374118868314</v>
+      </c>
+      <c r="N11">
+        <v>1.086163650041485</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.987517478357461</v>
+        <v>5.974652811182409</v>
       </c>
       <c r="C12">
-        <v>0.3624048407215668</v>
+        <v>1.571087074678076</v>
       </c>
       <c r="D12">
-        <v>0.5783382182941068</v>
+        <v>0.03656589346189065</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.44261125280417</v>
+        <v>3.894540458991969</v>
       </c>
       <c r="G12">
-        <v>0.0007088660069559138</v>
+        <v>0.0007154735224938273</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.074319701028642</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>3.500795656287977</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.473887801123027</v>
+      </c>
+      <c r="N12">
+        <v>1.093462627149862</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.952696165491432</v>
+        <v>5.937815869353585</v>
       </c>
       <c r="C13">
-        <v>0.3599812210873239</v>
+        <v>1.561412890049155</v>
       </c>
       <c r="D13">
-        <v>0.5748174179842636</v>
+        <v>0.03642401379705262</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.37071634616922</v>
+        <v>3.870980360342855</v>
       </c>
       <c r="G13">
-        <v>0.0007097092769990445</v>
+        <v>0.0007161098569588526</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.066811798865132</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3.474452878268536</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.432684978795479</v>
+      </c>
+      <c r="N13">
+        <v>1.091845586219648</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.840047299841217</v>
+        <v>5.818167179721456</v>
       </c>
       <c r="C14">
-        <v>0.3521328521835869</v>
+        <v>1.529991053217373</v>
       </c>
       <c r="D14">
-        <v>0.5634231160629497</v>
+        <v>0.0359713714208354</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.13790929515852</v>
+        <v>3.794642448127888</v>
       </c>
       <c r="G14">
-        <v>0.0007124499175379277</v>
+        <v>0.0007181824299852664</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.042520431851329</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.389464396770677</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.299794607120106</v>
+      </c>
+      <c r="N14">
+        <v>1.086744114296337</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.771722182847384</v>
+        <v>5.745241255953829</v>
       </c>
       <c r="C15">
-        <v>0.347366829789749</v>
+        <v>1.510839772996292</v>
       </c>
       <c r="D15">
-        <v>0.5565089059059858</v>
+        <v>0.03570161036286379</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.99653933099182</v>
+        <v>3.748254377588239</v>
       </c>
       <c r="G15">
-        <v>0.0007141217838189633</v>
+        <v>0.0007194500863555228</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.027784829808212</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3.338086310676019</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.219486811318632</v>
+      </c>
+      <c r="N15">
+        <v>1.083747988784211</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.389601280336649</v>
+        <v>5.332494290140801</v>
       </c>
       <c r="C16">
-        <v>0.3206348880590753</v>
+        <v>1.402449931732008</v>
       </c>
       <c r="D16">
-        <v>0.5177955274152453</v>
+        <v>0.03426165701613826</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.20363584271939</v>
+        <v>3.487701990003217</v>
       </c>
       <c r="G16">
-        <v>0.0007236128419081906</v>
+        <v>0.0007266931175553943</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9453448964297593</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.053027222951272</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.774258987638106</v>
+      </c>
+      <c r="N16">
+        <v>1.068414673535131</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.162678532281063</v>
+        <v>5.083496104288656</v>
       </c>
       <c r="C17">
-        <v>0.3047003828204993</v>
+        <v>1.337061330431368</v>
       </c>
       <c r="D17">
-        <v>0.4947699123549967</v>
+        <v>0.03346398745186718</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.730978945580773</v>
+        <v>3.332162430406242</v>
       </c>
       <c r="G17">
-        <v>0.0007293702391047138</v>
+        <v>0.0007311243495265618</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8963659939026272</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.885498062392998</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.512827780295737</v>
+      </c>
+      <c r="N17">
+        <v>1.060511833571198</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.034588101292002</v>
+        <v>4.941678728006082</v>
       </c>
       <c r="C18">
-        <v>0.2956868002150372</v>
+        <v>1.2998180099911</v>
       </c>
       <c r="D18">
-        <v>0.4817608737825765</v>
+        <v>0.03303350165455043</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.463599693933787</v>
+        <v>3.244131283280808</v>
       </c>
       <c r="G18">
-        <v>0.0007326631835773685</v>
+        <v>0.000733671130091686</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8687120392652758</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2.791483082734459</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.366178098937311</v>
+      </c>
+      <c r="N18">
+        <v>1.056470124809991</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.991608274730538</v>
+        <v>4.893889189012441</v>
       </c>
       <c r="C19">
-        <v>0.2926593043762153</v>
+        <v>1.287267484636857</v>
       </c>
       <c r="D19">
-        <v>0.4773938515910743</v>
+        <v>0.03289233421390492</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.373789436239065</v>
+        <v>3.214558136562232</v>
       </c>
       <c r="G19">
-        <v>0.0007337753893312815</v>
+        <v>0.0007345333100169843</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8594318381588408</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.760023630764834</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.317114913020532</v>
+      </c>
+      <c r="N19">
+        <v>1.055183957306937</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.186576599981606</v>
+        <v>5.109854362365866</v>
       </c>
       <c r="C20">
-        <v>0.3063805488930029</v>
+        <v>1.343983279266183</v>
       </c>
       <c r="D20">
-        <v>0.497196083182871</v>
+        <v>0.0335459035614889</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.780818244749099</v>
+        <v>3.348568591529215</v>
       </c>
       <c r="G20">
-        <v>0.0007287593868510532</v>
+        <v>0.0007306528917861987</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9015248898144108</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2.903081939201343</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.540260751925075</v>
+      </c>
+      <c r="N20">
+        <v>1.061299932699654</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.872991834211007</v>
+        <v>5.853234406790591</v>
       </c>
       <c r="C21">
-        <v>0.3544293605867779</v>
+        <v>1.539200242778406</v>
       </c>
       <c r="D21">
-        <v>0.5667560988233333</v>
+        <v>0.03610273867609948</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.20602964062755</v>
+        <v>3.816986374424346</v>
       </c>
       <c r="G21">
-        <v>0.0007116463928354219</v>
+        <v>0.0007175740693650123</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.049624975450328</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3.414283189473593</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.338595764160502</v>
+      </c>
+      <c r="N21">
+        <v>1.088215380382493</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.350932842880241</v>
+        <v>6.354887069038625</v>
       </c>
       <c r="C22">
-        <v>0.3876282360969583</v>
+        <v>1.670950365801616</v>
       </c>
       <c r="D22">
-        <v>0.6150452923301089</v>
+        <v>0.03810039792801234</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.19097709559048</v>
+        <v>4.139319145812493</v>
       </c>
       <c r="G22">
-        <v>0.0007001701656366155</v>
+        <v>0.0007089502817147631</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.152650246891113</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>3.777814444265118</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.907578580826652</v>
+      </c>
+      <c r="N22">
+        <v>1.111429566291264</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.092719038451037</v>
+        <v>6.085516969557716</v>
       </c>
       <c r="C23">
-        <v>0.3697199692936834</v>
+        <v>1.600202935604841</v>
       </c>
       <c r="D23">
-        <v>0.5889713525965306</v>
+        <v>0.03700008721322945</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.65961976619127</v>
+        <v>3.965610383417697</v>
       </c>
       <c r="G23">
-        <v>0.0007063292670189622</v>
+        <v>0.0007135632412713496</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.096999833098252</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3.580591089657432</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.598734439254002</v>
+      </c>
+      <c r="N23">
+        <v>1.098461007651522</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.17576497627681</v>
+        <v>5.097933670198586</v>
       </c>
       <c r="C24">
-        <v>0.3056204912841736</v>
+        <v>1.340852787033441</v>
       </c>
       <c r="D24">
-        <v>0.4960985063581518</v>
+        <v>0.03350878249330691</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.75827246039367</v>
+        <v>3.341147069717238</v>
       </c>
       <c r="G24">
-        <v>0.0007290356049042031</v>
+        <v>0.0007308660396371982</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8991909971823588</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2.895125188539936</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.527847070606228</v>
+      </c>
+      <c r="N24">
+        <v>1.060942081725827</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.277452461015912</v>
+        <v>4.084944034176658</v>
       </c>
       <c r="C25">
-        <v>0.2421301346319353</v>
+        <v>1.074776147028871</v>
       </c>
       <c r="D25">
-        <v>0.4046830351760917</v>
+        <v>0.03080306691527568</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.874742118275321</v>
+        <v>2.721114821003482</v>
       </c>
       <c r="G25">
-        <v>0.0007528533804109076</v>
+        <v>0.0007494736406423863</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7051496405671216</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.243302867232828</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>3.511778065926919</v>
+      </c>
+      <c r="N25">
+        <v>1.039377827904474</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.3700293885517</v>
+        <v>2.627400234149093</v>
       </c>
       <c r="C2">
-        <v>0.8868371399018145</v>
+        <v>0.4683839284862756</v>
       </c>
       <c r="D2">
-        <v>0.02944181019732639</v>
+        <v>0.09611449829661467</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.296856555172738</v>
+        <v>0.4690978363031562</v>
       </c>
       <c r="G2">
-        <v>0.0007633532177779807</v>
+        <v>0.264310080883206</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2504001351750986</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2282822852440383</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08508957922131088</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.231001831869591</v>
       </c>
       <c r="M2">
-        <v>2.835565016320857</v>
+        <v>0.4685813152267926</v>
       </c>
       <c r="N2">
-        <v>1.035388841059671</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.033258928956954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.899256738355348</v>
+        <v>2.287955850100047</v>
       </c>
       <c r="C3">
-        <v>0.762934022119623</v>
+        <v>0.4282815327174205</v>
       </c>
       <c r="D3">
-        <v>0.02881020511706112</v>
+        <v>0.09258039019051267</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.02416027669409</v>
+        <v>0.465517332100255</v>
       </c>
       <c r="G3">
-        <v>0.0007729563436944706</v>
+        <v>0.2597431418931038</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2544575634538333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2428301680854545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08793846365913716</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2116809488655989</v>
       </c>
       <c r="M3">
-        <v>2.406366952238571</v>
+        <v>0.4090936895362063</v>
       </c>
       <c r="N3">
-        <v>1.038469393353793</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.03170345212807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.615430934151959</v>
+        <v>2.079434792248662</v>
       </c>
       <c r="C4">
-        <v>0.6881486292749628</v>
+        <v>0.4036716290006268</v>
       </c>
       <c r="D4">
-        <v>0.0285390674835746</v>
+        <v>0.09049715701620897</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.862598244594921</v>
+        <v>0.4644537654586145</v>
       </c>
       <c r="G4">
-        <v>0.0007789725888971635</v>
+        <v>0.2577972619900777</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2574899074297932</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2525177289015978</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08978454626818255</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1999660691424765</v>
       </c>
       <c r="M4">
-        <v>2.153327459207176</v>
+        <v>0.3725987212062805</v>
       </c>
       <c r="N4">
-        <v>1.042779194294937</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.033691199946546</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.500882296704219</v>
+        <v>1.994417029486783</v>
       </c>
       <c r="C5">
-        <v>0.6579429606837266</v>
+        <v>0.3936442736963102</v>
       </c>
       <c r="D5">
-        <v>0.02845448574520759</v>
+        <v>0.08966944269649701</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.798050091021636</v>
+        <v>0.4642946730032733</v>
       </c>
       <c r="G5">
-        <v>0.0007814573510471767</v>
+        <v>0.2572100465613971</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2588572170264172</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2566490810858113</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09056088811864171</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1952273496050694</v>
       </c>
       <c r="M5">
-        <v>2.052377256063892</v>
+        <v>0.3577308591867876</v>
       </c>
       <c r="N5">
-        <v>1.045087313570335</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.035210548783027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.481923250050897</v>
+        <v>1.980296740157371</v>
       </c>
       <c r="C6">
-        <v>0.6529421420337371</v>
+        <v>0.3919792690942359</v>
       </c>
       <c r="D6">
-        <v>0.02844191397841911</v>
+        <v>0.0895332663306192</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.787404716963806</v>
+        <v>0.464284509417304</v>
       </c>
       <c r="G6">
-        <v>0.0007818720226771198</v>
+        <v>0.2571246801426383</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2590920797599594</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2573459984800071</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0906912428117348</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1944425553618458</v>
       </c>
       <c r="M6">
-        <v>2.035732944448014</v>
+        <v>0.3552622115262736</v>
       </c>
       <c r="N6">
-        <v>1.045502385581813</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.035504804571119</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.613881838826615</v>
+        <v>2.078288413448831</v>
       </c>
       <c r="C7">
-        <v>0.6877402402813004</v>
+        <v>0.4035363934222289</v>
       </c>
       <c r="D7">
-        <v>0.02853782608807975</v>
+        <v>0.09048590900881237</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.86172273667944</v>
+        <v>0.4644505234477236</v>
       </c>
       <c r="G7">
-        <v>0.0007790059616522601</v>
+        <v>0.2577885225309657</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.257507820325344</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2525727105222035</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08979491931122929</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1999020213076719</v>
       </c>
       <c r="M7">
-        <v>2.151957811153451</v>
+        <v>0.3723981958458253</v>
       </c>
       <c r="N7">
-        <v>1.042808157518152</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.033708857972144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.206492625352439</v>
+        <v>2.510369182487636</v>
       </c>
       <c r="C8">
-        <v>0.8438124226410082</v>
+        <v>0.4545526826888135</v>
       </c>
       <c r="D8">
-        <v>0.02919760561008289</v>
+        <v>0.09487757568061994</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.201491889662776</v>
+        <v>0.4676209370191344</v>
       </c>
       <c r="G8">
-        <v>0.0007666413793142569</v>
+        <v>0.2625510818161345</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2516841008035868</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2331378165935902</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0860515837200051</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.224307935570927</v>
       </c>
       <c r="M8">
-        <v>2.685090359225356</v>
+        <v>0.4480613719891409</v>
       </c>
       <c r="N8">
-        <v>1.035912999910735</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.032092954505487</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.42053260227965</v>
+        <v>3.357811787544335</v>
       </c>
       <c r="C9">
-        <v>1.162941073122965</v>
+        <v>0.5547988170974918</v>
       </c>
       <c r="D9">
-        <v>0.03160056721628024</v>
+        <v>0.1042060226461885</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.92415847900179</v>
+        <v>0.4833650672464884</v>
       </c>
       <c r="G9">
-        <v>0.0007431908806719757</v>
+        <v>0.2791758543464056</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2447670118180412</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2013120457173052</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.079493736222366</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2734456816643274</v>
       </c>
       <c r="M9">
-        <v>3.840319500272173</v>
+        <v>0.5968602353672807</v>
       </c>
       <c r="N9">
-        <v>1.044544608574242</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.053723036549556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.361106716836787</v>
+        <v>3.981962211682401</v>
       </c>
       <c r="C10">
-        <v>1.409963671626997</v>
+        <v>0.6287300148796646</v>
       </c>
       <c r="D10">
-        <v>0.03435673405343209</v>
+        <v>0.1115383870778288</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.505654502712758</v>
+        <v>0.5015027469103188</v>
       </c>
       <c r="G10">
-        <v>0.0007261870445442765</v>
+        <v>0.2965264969757015</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2427369678489484</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1821888082732332</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07517353062764442</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3104794251502341</v>
       </c>
       <c r="M10">
-        <v>4.804633835762843</v>
+        <v>0.7067194738269436</v>
       </c>
       <c r="N10">
-        <v>1.069388106052969</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.08684923992881</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.804200356438116</v>
+        <v>4.266589867902098</v>
       </c>
       <c r="C11">
-        <v>1.526323168465922</v>
+        <v>0.6624623771110691</v>
       </c>
       <c r="D11">
-        <v>0.03591934810015118</v>
+        <v>0.1149878932329571</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.785749973163661</v>
+        <v>0.511359627755219</v>
       </c>
       <c r="G11">
-        <v>0.0007184249485191538</v>
+        <v>0.3056983538871734</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2425482429914894</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1745138994329309</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07332108275318916</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3275659114145952</v>
       </c>
       <c r="M11">
-        <v>5.284374118868314</v>
+        <v>0.7568810527352809</v>
       </c>
       <c r="N11">
-        <v>1.086163650041485</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.106158844609183</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.974652811182409</v>
+        <v>4.374501795005415</v>
       </c>
       <c r="C12">
-        <v>1.571087074678076</v>
+        <v>0.6752537272701318</v>
       </c>
       <c r="D12">
-        <v>0.03656589346189065</v>
+        <v>0.1163113755533942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.894540458991969</v>
+        <v>0.5153389548841574</v>
       </c>
       <c r="G12">
-        <v>0.0007154735224938273</v>
+        <v>0.309369904976819</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2425888555584521</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1717638205898631</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07263626970737036</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3340737516905108</v>
       </c>
       <c r="M12">
-        <v>5.473887801123027</v>
+        <v>0.7759084988497946</v>
       </c>
       <c r="N12">
-        <v>1.093462627149862</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.1141248341481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.937815869353585</v>
+        <v>4.351254777852603</v>
       </c>
       <c r="C13">
-        <v>1.561412890049155</v>
+        <v>0.6724980437397505</v>
       </c>
       <c r="D13">
-        <v>0.03642401379705262</v>
+        <v>0.1160255597807449</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.870980360342855</v>
+        <v>0.5144706996091557</v>
       </c>
       <c r="G13">
-        <v>0.0007161098569588526</v>
+        <v>0.3085701083674479</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2425750175669492</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.172349002151261</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07278300777070257</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3326704498527704</v>
       </c>
       <c r="M13">
-        <v>5.432684978795479</v>
+        <v>0.771809065867231</v>
       </c>
       <c r="N13">
-        <v>1.091845586219648</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.112379402952911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.818167179721456</v>
+        <v>4.275465074464648</v>
       </c>
       <c r="C14">
-        <v>1.529991053217373</v>
+        <v>0.66351435672658</v>
       </c>
       <c r="D14">
-        <v>0.0359713714208354</v>
+        <v>0.115096426635013</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.794642448127888</v>
+        <v>0.511681970337925</v>
       </c>
       <c r="G14">
-        <v>0.0007181824299852664</v>
+        <v>0.3059963529763507</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2425492997538186</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1742844643066981</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0732644060749692</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3281005441316012</v>
       </c>
       <c r="M14">
-        <v>5.299794607120106</v>
+        <v>0.7584457704375822</v>
       </c>
       <c r="N14">
-        <v>1.086744114296337</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.106800844445388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.745241255953829</v>
+        <v>4.22905947563271</v>
       </c>
       <c r="C15">
-        <v>1.510839772996292</v>
+        <v>0.6580139839042261</v>
       </c>
       <c r="D15">
-        <v>0.03570161036286379</v>
+        <v>0.1145295752693087</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.748254377588239</v>
+        <v>0.5100064117176402</v>
       </c>
       <c r="G15">
-        <v>0.0007194500863555228</v>
+        <v>0.3044461313415709</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2425483403241131</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1754906127775442</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07356146079184889</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3253063316647768</v>
       </c>
       <c r="M15">
-        <v>5.219486811318632</v>
+        <v>0.7502647513741891</v>
       </c>
       <c r="N15">
-        <v>1.083747988784211</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.103470324770484</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.332494290140801</v>
+        <v>3.963377623553924</v>
       </c>
       <c r="C16">
-        <v>1.402449931732008</v>
+        <v>0.6265278159835646</v>
       </c>
       <c r="D16">
-        <v>0.03426165701613826</v>
+        <v>0.1113153178825641</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.487701990003217</v>
+        <v>0.5008922217456302</v>
       </c>
       <c r="G16">
-        <v>0.0007266931175553943</v>
+        <v>0.2959540457634446</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2427646264051049</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1827117464159471</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07529690029531899</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.309367865538448</v>
       </c>
       <c r="M16">
-        <v>4.774258987638106</v>
+        <v>0.7034455091110203</v>
       </c>
       <c r="N16">
-        <v>1.068414673535131</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.085676346097785</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.083496104288656</v>
+        <v>3.800589375692482</v>
       </c>
       <c r="C17">
-        <v>1.337061330431368</v>
+        <v>0.6072400283837283</v>
       </c>
       <c r="D17">
-        <v>0.03346398745186718</v>
+        <v>0.1093732491639443</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.332162430406242</v>
+        <v>0.4957232311345905</v>
       </c>
       <c r="G17">
-        <v>0.0007311243495265618</v>
+        <v>0.2910820038694339</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2430899427279485</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1874102342979249</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07639074345075159</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2996536522785789</v>
       </c>
       <c r="M17">
-        <v>4.512827780295737</v>
+        <v>0.674774922903346</v>
       </c>
       <c r="N17">
-        <v>1.060511833571198</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.075876892849493</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.941678728006082</v>
+        <v>3.707021750697322</v>
       </c>
       <c r="C18">
-        <v>1.2998180099911</v>
+        <v>0.5961554765172536</v>
       </c>
       <c r="D18">
-        <v>0.03303350165455043</v>
+        <v>0.1082668975165006</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.244131283280808</v>
+        <v>0.4929003232441147</v>
       </c>
       <c r="G18">
-        <v>0.000733671130091686</v>
+        <v>0.288399199186685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2433458068552952</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1902085306395502</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07703048569449855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2940886533404381</v>
       </c>
       <c r="M18">
-        <v>4.366178098937311</v>
+        <v>0.6583015140526669</v>
       </c>
       <c r="N18">
-        <v>1.056470124809991</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.0706368277216</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.893889189012441</v>
+        <v>3.675351477375102</v>
       </c>
       <c r="C19">
-        <v>1.287267484636857</v>
+        <v>0.592403938317716</v>
       </c>
       <c r="D19">
-        <v>0.03289233421390492</v>
+        <v>0.107894114504326</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.214558136562232</v>
+        <v>0.4919698590513732</v>
       </c>
       <c r="G19">
-        <v>0.0007345333100169843</v>
+        <v>0.2875109399266407</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2434440568784098</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1911721842449943</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07724889762052101</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2922081895735715</v>
       </c>
       <c r="M19">
-        <v>4.317114913020532</v>
+        <v>0.6527266834641878</v>
       </c>
       <c r="N19">
-        <v>1.055183957306937</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.068929400700469</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.109854362365866</v>
+        <v>3.817911648057589</v>
       </c>
       <c r="C20">
-        <v>1.343983279266183</v>
+        <v>0.6092922644658643</v>
       </c>
       <c r="D20">
-        <v>0.0335459035614889</v>
+        <v>0.1095788749571085</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.348568591529215</v>
+        <v>0.496257826720516</v>
       </c>
       <c r="G20">
-        <v>0.0007306528917861987</v>
+        <v>0.2915881750274565</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2430481515629879</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1869000890120258</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07627320255708803</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3006854109508339</v>
       </c>
       <c r="M20">
-        <v>4.540260751925075</v>
+        <v>0.6778251411939991</v>
       </c>
       <c r="N20">
-        <v>1.061299932699654</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.076878732869844</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.853234406790591</v>
+        <v>4.297722586359271</v>
       </c>
       <c r="C21">
-        <v>1.539200242778406</v>
+        <v>0.6661525782839135</v>
       </c>
       <c r="D21">
-        <v>0.03610273867609948</v>
+        <v>0.1153688610285215</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.816986374424346</v>
+        <v>0.5124942604498699</v>
       </c>
       <c r="G21">
-        <v>0.0007175740693650123</v>
+        <v>0.3067468239534321</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2425537587142088</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1737116578199291</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07312255167899551</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3294417911616421</v>
       </c>
       <c r="M21">
-        <v>5.338595764160502</v>
+        <v>0.7623699697879687</v>
       </c>
       <c r="N21">
-        <v>1.088215380382493</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.108421291350567</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.354887069038625</v>
+        <v>4.612077403651881</v>
       </c>
       <c r="C22">
-        <v>1.670950365801616</v>
+        <v>0.7034185309407235</v>
       </c>
       <c r="D22">
-        <v>0.03810039792801234</v>
+        <v>0.1192538025430281</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.139319145812493</v>
+        <v>0.5245519497014044</v>
       </c>
       <c r="G22">
-        <v>0.0007089502817147631</v>
+        <v>0.3178174924095742</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2428872027607838</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1660075031220245</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07116080185675955</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3484562590056726</v>
       </c>
       <c r="M22">
-        <v>5.907578580826652</v>
+        <v>0.817816330569805</v>
       </c>
       <c r="N22">
-        <v>1.111429566291264</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.132869889025329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.085516969557716</v>
+        <v>4.444219582827259</v>
       </c>
       <c r="C23">
-        <v>1.600202935604841</v>
+        <v>0.6835183229925974</v>
       </c>
       <c r="D23">
-        <v>0.03700008721322945</v>
+        <v>0.1171708177509956</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.965610383417697</v>
+        <v>0.5179787222154602</v>
       </c>
       <c r="G23">
-        <v>0.0007135632412713496</v>
+        <v>0.3117973805512833</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2426469325781255</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1700325123962187</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07219876093856747</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.338286624343624</v>
       </c>
       <c r="M23">
-        <v>5.598734439254002</v>
+        <v>0.7882040918912949</v>
       </c>
       <c r="N23">
-        <v>1.098461007651522</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.119455117311531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.097933670198586</v>
+        <v>3.810080183909179</v>
       </c>
       <c r="C24">
-        <v>1.340852787033441</v>
+        <v>0.6083644355179558</v>
       </c>
       <c r="D24">
-        <v>0.03350878249330691</v>
+        <v>0.1094858799231631</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.341147069717238</v>
+        <v>0.496015673718702</v>
       </c>
       <c r="G24">
-        <v>0.0007308660396371982</v>
+        <v>0.2913589679719095</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2430668314226025</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1871304240049234</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07632630894809012</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3002188913154953</v>
       </c>
       <c r="M24">
-        <v>4.527847070606228</v>
+        <v>0.6764461077305981</v>
       </c>
       <c r="N24">
-        <v>1.060942081725827</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.076424577790831</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.084944034176658</v>
+        <v>3.128398179144824</v>
       </c>
       <c r="C25">
-        <v>1.074776147028871</v>
+        <v>0.5276424045415808</v>
       </c>
       <c r="D25">
-        <v>0.03080306691527568</v>
+        <v>0.1016015332426718</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.721114821003482</v>
+        <v>0.4780097485219841</v>
       </c>
       <c r="G25">
-        <v>0.0007494736406423863</v>
+        <v>0.2738290642934587</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2461255627789072</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2092061185903429</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08118194291201952</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.260000568203111</v>
       </c>
       <c r="M25">
-        <v>3.511778065926919</v>
+        <v>0.5565332759733437</v>
       </c>
       <c r="N25">
-        <v>1.039377827904474</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.045005341405982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.627400234149093</v>
+        <v>1.079090931672567</v>
       </c>
       <c r="C2">
-        <v>0.4683839284862756</v>
+        <v>0.2813993398229684</v>
       </c>
       <c r="D2">
-        <v>0.09611449829661467</v>
+        <v>0.2247967378451534</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4690978363031562</v>
+        <v>1.138276000724971</v>
       </c>
       <c r="G2">
-        <v>0.264310080883206</v>
+        <v>0.5663902846377198</v>
       </c>
       <c r="H2">
-        <v>0.2504001351750986</v>
+        <v>0.7088038347337928</v>
       </c>
       <c r="I2">
-        <v>0.2282822852440383</v>
+        <v>0.7023932395227011</v>
       </c>
       <c r="J2">
-        <v>0.08508957922131088</v>
+        <v>0.2119088042265709</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.231001831869591</v>
+        <v>0.3629779441536414</v>
       </c>
       <c r="M2">
-        <v>0.4685813152267926</v>
+        <v>0.2816805485701721</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.033258928956954</v>
+        <v>2.526337476135652</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.287955850100047</v>
+        <v>0.9704600751207977</v>
       </c>
       <c r="C3">
-        <v>0.4282815327174205</v>
+        <v>0.2680210114067449</v>
       </c>
       <c r="D3">
-        <v>0.09258039019051267</v>
+        <v>0.2249199950571352</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.465517332100255</v>
+        <v>1.147957397497322</v>
       </c>
       <c r="G3">
-        <v>0.2597431418931038</v>
+        <v>0.571969731404316</v>
       </c>
       <c r="H3">
-        <v>0.2544575634538333</v>
+        <v>0.7155176558431435</v>
       </c>
       <c r="I3">
-        <v>0.2428301680854545</v>
+        <v>0.7132516209693822</v>
       </c>
       <c r="J3">
-        <v>0.08793846365913716</v>
+        <v>0.2136904709234564</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2116809488655989</v>
+        <v>0.3590213327849412</v>
       </c>
       <c r="M3">
-        <v>0.4090936895362063</v>
+        <v>0.2635630051467643</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.03170345212807</v>
+        <v>2.551955579266348</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.079434792248662</v>
+        <v>0.9036174569251898</v>
       </c>
       <c r="C4">
-        <v>0.4036716290006268</v>
+        <v>0.2597901016218316</v>
       </c>
       <c r="D4">
-        <v>0.09049715701620897</v>
+        <v>0.2250656620387588</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4644537654586145</v>
+        <v>1.154568677939494</v>
       </c>
       <c r="G4">
-        <v>0.2577972619900777</v>
+        <v>0.5758328530807546</v>
       </c>
       <c r="H4">
-        <v>0.2574899074297932</v>
+        <v>0.7199814947120302</v>
       </c>
       <c r="I4">
-        <v>0.2525177289015978</v>
+        <v>0.7203469292444282</v>
       </c>
       <c r="J4">
-        <v>0.08978454626818255</v>
+        <v>0.2148510687524112</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1999660691424765</v>
+        <v>0.3567037669240278</v>
       </c>
       <c r="M4">
-        <v>0.3725987212062805</v>
+        <v>0.2524562886891744</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.033691199946546</v>
+        <v>2.569318038925871</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.994417029486783</v>
+        <v>0.8763447266841808</v>
       </c>
       <c r="C5">
-        <v>0.3936442736963102</v>
+        <v>0.2564320699858058</v>
       </c>
       <c r="D5">
-        <v>0.08966944269649701</v>
+        <v>0.2251426778023671</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4642946730032733</v>
+        <v>1.157430545643642</v>
       </c>
       <c r="G5">
-        <v>0.2572100465613971</v>
+        <v>0.577516972446773</v>
       </c>
       <c r="H5">
-        <v>0.2588572170264172</v>
+        <v>0.7218864637856726</v>
       </c>
       <c r="I5">
-        <v>0.2566490810858113</v>
+        <v>0.7233459508868005</v>
       </c>
       <c r="J5">
-        <v>0.09056088811864171</v>
+        <v>0.2153408082382917</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1952273496050694</v>
+        <v>0.3557876057802218</v>
       </c>
       <c r="M5">
-        <v>0.3577308591867876</v>
+        <v>0.2479349894495897</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.035210548783027</v>
+        <v>2.576803833957555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.980296740157371</v>
+        <v>0.8718141298291471</v>
       </c>
       <c r="C6">
-        <v>0.3919792690942359</v>
+        <v>0.2558742464426871</v>
       </c>
       <c r="D6">
-        <v>0.0895332663306192</v>
+        <v>0.225156534211699</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.464284509417304</v>
+        <v>1.15791588714422</v>
       </c>
       <c r="G6">
-        <v>0.2571246801426383</v>
+        <v>0.5778032518251592</v>
       </c>
       <c r="H6">
-        <v>0.2590920797599594</v>
+        <v>0.7222079728632451</v>
       </c>
       <c r="I6">
-        <v>0.2573459984800071</v>
+        <v>0.7238504349257724</v>
       </c>
       <c r="J6">
-        <v>0.0906912428117348</v>
+        <v>0.2154231437769667</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1944425553618458</v>
+        <v>0.355637189531322</v>
       </c>
       <c r="M6">
-        <v>0.3552622115262736</v>
+        <v>0.2471845306564404</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.035504804571119</v>
+        <v>2.578071630677343</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.078288413448831</v>
+        <v>0.9032497814995963</v>
       </c>
       <c r="C7">
-        <v>0.4035363934222289</v>
+        <v>0.2597448293060154</v>
       </c>
       <c r="D7">
-        <v>0.09048590900881237</v>
+        <v>0.2250666291389791</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4644505234477236</v>
+        <v>1.15460659496933</v>
       </c>
       <c r="G7">
-        <v>0.2577885225309657</v>
+        <v>0.5758551209954916</v>
       </c>
       <c r="H7">
-        <v>0.257507820325344</v>
+        <v>0.7200068378592448</v>
       </c>
       <c r="I7">
-        <v>0.2525727105222035</v>
+        <v>0.720386939396283</v>
       </c>
       <c r="J7">
-        <v>0.08979491931122929</v>
+        <v>0.2148576055459355</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1999020213076719</v>
+        <v>0.3566912966069538</v>
       </c>
       <c r="M7">
-        <v>0.3723981958458253</v>
+        <v>0.2523952930287976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.033708857972144</v>
+        <v>2.569417333258443</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.510369182487636</v>
+        <v>1.04166587795379</v>
       </c>
       <c r="C8">
-        <v>0.4545526826888135</v>
+        <v>0.2767901022389196</v>
       </c>
       <c r="D8">
-        <v>0.09487757568061994</v>
+        <v>0.2248247448071297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4676209370191344</v>
+        <v>1.141475755912047</v>
       </c>
       <c r="G8">
-        <v>0.2625510818161345</v>
+        <v>0.5682232513195444</v>
       </c>
       <c r="H8">
-        <v>0.2516841008035868</v>
+        <v>0.7110479003445747</v>
       </c>
       <c r="I8">
-        <v>0.2331378165935902</v>
+        <v>0.7060483020757022</v>
       </c>
       <c r="J8">
-        <v>0.0860515837200051</v>
+        <v>0.2125093068336827</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.224307935570927</v>
+        <v>0.3615905867436382</v>
       </c>
       <c r="M8">
-        <v>0.4480613719891409</v>
+        <v>0.2754301973912376</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.032092954505487</v>
+        <v>2.534831618540736</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.357811787544335</v>
+        <v>1.311887316821924</v>
       </c>
       <c r="C9">
-        <v>0.5547988170974918</v>
+        <v>0.3100730921034938</v>
       </c>
       <c r="D9">
-        <v>0.1042060226461885</v>
+        <v>0.2249033801543661</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4833650672464884</v>
+        <v>1.121016584568345</v>
       </c>
       <c r="G9">
-        <v>0.2791758543464056</v>
+        <v>0.5567319123753691</v>
       </c>
       <c r="H9">
-        <v>0.2447670118180412</v>
+        <v>0.6961875735808505</v>
       </c>
       <c r="I9">
-        <v>0.2013120457173052</v>
+        <v>0.68133003331838</v>
       </c>
       <c r="J9">
-        <v>0.079493736222366</v>
+        <v>0.2084318574471578</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2734456816643274</v>
+        <v>0.372079378404564</v>
       </c>
       <c r="M9">
-        <v>0.5968602353672807</v>
+        <v>0.3207266898869747</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.053723036549556</v>
+        <v>2.479971843317031</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.981962211682401</v>
+        <v>1.509593734353189</v>
       </c>
       <c r="C10">
-        <v>0.6287300148796646</v>
+        <v>0.3344263052370025</v>
       </c>
       <c r="D10">
-        <v>0.1115383870778288</v>
+        <v>0.2252953225857652</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5015027469103188</v>
+        <v>1.109209725243055</v>
       </c>
       <c r="G10">
-        <v>0.2965264969757015</v>
+        <v>0.5504145006780092</v>
       </c>
       <c r="H10">
-        <v>0.2427369678489484</v>
+        <v>0.6869182958183586</v>
       </c>
       <c r="I10">
-        <v>0.1821888082732332</v>
+        <v>0.6652444124353618</v>
       </c>
       <c r="J10">
-        <v>0.07517353062764442</v>
+        <v>0.2057559971085734</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3104794251502341</v>
+        <v>0.3803159783233667</v>
       </c>
       <c r="M10">
-        <v>0.7067194738269436</v>
+        <v>0.3540669102491023</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.08684923992881</v>
+        <v>2.447579079107399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.266589867902098</v>
+        <v>1.599339348845433</v>
       </c>
       <c r="C11">
-        <v>0.6624623771110691</v>
+        <v>0.3454810096204994</v>
       </c>
       <c r="D11">
-        <v>0.1149878932329571</v>
+        <v>0.2255455815091096</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.511359627755219</v>
+        <v>1.104538546792611</v>
       </c>
       <c r="G11">
-        <v>0.3056983538871734</v>
+        <v>0.5480035395603124</v>
       </c>
       <c r="H11">
-        <v>0.2425482429914894</v>
+        <v>0.6830589527253608</v>
       </c>
       <c r="I11">
-        <v>0.1745138994329309</v>
+        <v>0.6583776663515764</v>
       </c>
       <c r="J11">
-        <v>0.07332108275318916</v>
+        <v>0.2046077549860534</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3275659114145952</v>
+        <v>0.3841768465659214</v>
       </c>
       <c r="M11">
-        <v>0.7568810527352809</v>
+        <v>0.3692444285024834</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.106158844609183</v>
+        <v>2.43456320591784</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.374501795005415</v>
+        <v>1.633294230008119</v>
       </c>
       <c r="C12">
-        <v>0.6752537272701318</v>
+        <v>0.3496634695534908</v>
       </c>
       <c r="D12">
-        <v>0.1163113755533942</v>
+        <v>0.2256506420652542</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5153389548841574</v>
+        <v>1.102870313185242</v>
       </c>
       <c r="G12">
-        <v>0.309369904976819</v>
+        <v>0.5471572470544004</v>
       </c>
       <c r="H12">
-        <v>0.2425888555584521</v>
+        <v>0.6816488644810477</v>
       </c>
       <c r="I12">
-        <v>0.1717638205898631</v>
+        <v>0.6558422726692825</v>
       </c>
       <c r="J12">
-        <v>0.07263626970737036</v>
+        <v>0.2041828432755484</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3340737516905108</v>
+        <v>0.3856551133287667</v>
       </c>
       <c r="M12">
-        <v>0.7759084988497946</v>
+        <v>0.3749929989887946</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.1141248341481</v>
+        <v>2.429881914440273</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.351254777852603</v>
+        <v>1.6259828009903</v>
       </c>
       <c r="C13">
-        <v>0.6724980437397505</v>
+        <v>0.3487628721770761</v>
       </c>
       <c r="D13">
-        <v>0.1160255597807449</v>
+        <v>0.2256275584905936</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5144706996091557</v>
+        <v>1.103225121042769</v>
       </c>
       <c r="G13">
-        <v>0.3085701083674479</v>
+        <v>0.5473365433950619</v>
       </c>
       <c r="H13">
-        <v>0.2425750175669492</v>
+        <v>0.6819502681941287</v>
       </c>
       <c r="I13">
-        <v>0.172349002151261</v>
+        <v>0.6563854275137935</v>
       </c>
       <c r="J13">
-        <v>0.07278300777070257</v>
+        <v>0.2042739155444107</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3326704498527704</v>
+        <v>0.3853360222960873</v>
       </c>
       <c r="M13">
-        <v>0.771809065867231</v>
+        <v>0.3737548954902223</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.112379402952911</v>
+        <v>2.430879101284603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.275465074464648</v>
+        <v>1.602133447978588</v>
       </c>
       <c r="C14">
-        <v>0.66351435672658</v>
+        <v>0.3458251793681768</v>
       </c>
       <c r="D14">
-        <v>0.115096426635013</v>
+        <v>0.2255540189344813</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.511681970337925</v>
+        <v>1.104399283193786</v>
       </c>
       <c r="G14">
-        <v>0.3059963529763507</v>
+        <v>0.5479325773536914</v>
       </c>
       <c r="H14">
-        <v>0.2425492997538186</v>
+        <v>0.6829419146635161</v>
       </c>
       <c r="I14">
-        <v>0.1742844643066981</v>
+        <v>0.6581677769214771</v>
       </c>
       <c r="J14">
-        <v>0.0732644060749692</v>
+        <v>0.2045725989067932</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3281005441316012</v>
+        <v>0.3842981398679655</v>
       </c>
       <c r="M14">
-        <v>0.7584457704375822</v>
+        <v>0.3697173455684251</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.106800844445388</v>
+        <v>2.434173110885553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.22905947563271</v>
+        <v>1.587521079464864</v>
       </c>
       <c r="C15">
-        <v>0.6580139839042261</v>
+        <v>0.3440252645308135</v>
       </c>
       <c r="D15">
-        <v>0.1145295752693087</v>
+        <v>0.2255103126406084</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5100064117176402</v>
+        <v>1.105131597932051</v>
       </c>
       <c r="G15">
-        <v>0.3044461313415709</v>
+        <v>0.5483063536171713</v>
       </c>
       <c r="H15">
-        <v>0.2425483403241131</v>
+        <v>0.683556014977647</v>
       </c>
       <c r="I15">
-        <v>0.1754906127775442</v>
+        <v>0.6592679710706975</v>
       </c>
       <c r="J15">
-        <v>0.07356146079184889</v>
+        <v>0.2047568400503383</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3253063316647768</v>
+        <v>0.3836645172753634</v>
       </c>
       <c r="M15">
-        <v>0.7502647513741891</v>
+        <v>0.3672443709273878</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.103470324770484</v>
+        <v>2.436223030533711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963377623553924</v>
+        <v>1.503724593054869</v>
       </c>
       <c r="C16">
-        <v>0.6265278159835646</v>
+        <v>0.3337033510073582</v>
       </c>
       <c r="D16">
-        <v>0.1113153178825641</v>
+        <v>0.2252804109244906</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5008922217456302</v>
+        <v>1.109529080549045</v>
       </c>
       <c r="G16">
-        <v>0.2959540457634446</v>
+        <v>0.5505813875249004</v>
       </c>
       <c r="H16">
-        <v>0.2427646264051049</v>
+        <v>0.6871777011959139</v>
       </c>
       <c r="I16">
-        <v>0.1827117464159471</v>
+        <v>0.6657022467312217</v>
       </c>
       <c r="J16">
-        <v>0.07529690029531899</v>
+        <v>0.2058324243767711</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.309367865538448</v>
+        <v>0.3800659423415311</v>
       </c>
       <c r="M16">
-        <v>0.7034455091110203</v>
+        <v>0.3530752092540439</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.085676346097785</v>
+        <v>2.448464323398937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.800589375692482</v>
+        <v>1.452267394816715</v>
       </c>
       <c r="C17">
-        <v>0.6072400283837283</v>
+        <v>0.3273649017425271</v>
       </c>
       <c r="D17">
-        <v>0.1093732491639443</v>
+        <v>0.2251577656645907</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4957232311345905</v>
+        <v>1.112406039997119</v>
       </c>
       <c r="G17">
-        <v>0.2910820038694339</v>
+        <v>0.5520956880706578</v>
       </c>
       <c r="H17">
-        <v>0.2430899427279485</v>
+        <v>0.6894909883345832</v>
       </c>
       <c r="I17">
-        <v>0.1874102342979249</v>
+        <v>0.669764958828809</v>
       </c>
       <c r="J17">
-        <v>0.07639074345075159</v>
+        <v>0.2065099222470028</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2996536522785789</v>
+        <v>0.3778874217305486</v>
       </c>
       <c r="M17">
-        <v>0.674774922903346</v>
+        <v>0.3443853961586782</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.075876892849493</v>
+        <v>2.456414601959082</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.707021750697322</v>
+        <v>1.422652632899485</v>
       </c>
       <c r="C18">
-        <v>0.5961554765172536</v>
+        <v>0.3237169814903496</v>
       </c>
       <c r="D18">
-        <v>0.1082668975165006</v>
+        <v>0.2250940000845958</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4929003232441147</v>
+        <v>1.114126661127706</v>
       </c>
       <c r="G18">
-        <v>0.288399199186685</v>
+        <v>0.5530102328719195</v>
       </c>
       <c r="H18">
-        <v>0.2433458068552952</v>
+        <v>0.6908551615473328</v>
       </c>
       <c r="I18">
-        <v>0.1902085306395502</v>
+        <v>0.6721441387060789</v>
       </c>
       <c r="J18">
-        <v>0.07703048569449855</v>
+        <v>0.2069060989258151</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2940886533404381</v>
+        <v>0.3766451334097951</v>
       </c>
       <c r="M18">
-        <v>0.6583015140526669</v>
+        <v>0.3393882933036778</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.0706368277216</v>
+        <v>2.461149249650987</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.675351477375102</v>
+        <v>1.412622569661437</v>
       </c>
       <c r="C19">
-        <v>0.592403938317716</v>
+        <v>0.3224814879485507</v>
       </c>
       <c r="D19">
-        <v>0.107894114504326</v>
+        <v>0.2250735757464639</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4919698590513732</v>
+        <v>1.11472054690848</v>
       </c>
       <c r="G19">
-        <v>0.2875109399266407</v>
+        <v>0.5533273594539097</v>
       </c>
       <c r="H19">
-        <v>0.2434440568784098</v>
+        <v>0.691322823963624</v>
       </c>
       <c r="I19">
-        <v>0.1911721842449943</v>
+        <v>0.6729569703721481</v>
       </c>
       <c r="J19">
-        <v>0.07724889762052101</v>
+        <v>0.2070413542354697</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2922081895735715</v>
+        <v>0.376226365050826</v>
       </c>
       <c r="M19">
-        <v>0.6527266834641878</v>
+        <v>0.3376965520623685</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.068929400700469</v>
+        <v>2.46278011191346</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.817911648057589</v>
+        <v>1.457746974531403</v>
       </c>
       <c r="C20">
-        <v>0.6092922644658643</v>
+        <v>0.3280398716572961</v>
       </c>
       <c r="D20">
-        <v>0.1095788749571085</v>
+        <v>0.225170120496756</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.496257826720516</v>
+        <v>1.112092965385145</v>
       </c>
       <c r="G20">
-        <v>0.2915881750274565</v>
+        <v>0.5519299790538383</v>
       </c>
       <c r="H20">
-        <v>0.2430481515629879</v>
+        <v>0.6892412543496746</v>
       </c>
       <c r="I20">
-        <v>0.1869000890120258</v>
+        <v>0.6693280857360406</v>
       </c>
       <c r="J20">
-        <v>0.07627320255708803</v>
+        <v>0.2064371291048026</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3006854109508339</v>
+        <v>0.3781182186201875</v>
       </c>
       <c r="M20">
-        <v>0.6778251411939991</v>
+        <v>0.345310335996281</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.076878732869844</v>
+        <v>2.455551527827026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.297722586359271</v>
+        <v>1.609139408438864</v>
       </c>
       <c r="C21">
-        <v>0.6661525782839135</v>
+        <v>0.3466881542816793</v>
       </c>
       <c r="D21">
-        <v>0.1153688610285215</v>
+        <v>0.2255753403768637</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5124942604498699</v>
+        <v>1.10405167191152</v>
       </c>
       <c r="G21">
-        <v>0.3067468239534321</v>
+        <v>0.5477556968833852</v>
       </c>
       <c r="H21">
-        <v>0.2425537587142088</v>
+        <v>0.682649250271254</v>
       </c>
       <c r="I21">
-        <v>0.1737116578199291</v>
+        <v>0.6576424958046303</v>
       </c>
       <c r="J21">
-        <v>0.07312255167899551</v>
+        <v>0.2044845997843581</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3294417911616421</v>
+        <v>0.3846025515707794</v>
       </c>
       <c r="M21">
-        <v>0.7623699697879687</v>
+        <v>0.3709032431078469</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.108421291350567</v>
+        <v>2.433198860450091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.612077403651881</v>
+        <v>1.707908190966521</v>
       </c>
       <c r="C22">
-        <v>0.7034185309407235</v>
+        <v>0.3588540792550532</v>
       </c>
       <c r="D22">
-        <v>0.1192538025430281</v>
+        <v>0.2259001445559221</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5245519497014044</v>
+        <v>1.099382832635349</v>
       </c>
       <c r="G22">
-        <v>0.3178174924095742</v>
+        <v>0.5454163179422409</v>
       </c>
       <c r="H22">
-        <v>0.2428872027607838</v>
+        <v>0.6786403587270087</v>
       </c>
       <c r="I22">
-        <v>0.1660075031220245</v>
+        <v>0.6503835791043535</v>
       </c>
       <c r="J22">
-        <v>0.07116080185675955</v>
+        <v>0.2032662191191221</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3484562590056726</v>
+        <v>0.3889350250025245</v>
       </c>
       <c r="M22">
-        <v>0.817816330569805</v>
+        <v>0.3876363484480905</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.132869889025329</v>
+        <v>2.420033044277659</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.444219582827259</v>
+        <v>1.655210169259306</v>
       </c>
       <c r="C23">
-        <v>0.6835183229925974</v>
+        <v>0.3523629930125196</v>
       </c>
       <c r="D23">
-        <v>0.1171708177509956</v>
+        <v>0.225721321432097</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5179787222154602</v>
+        <v>1.10182100317904</v>
       </c>
       <c r="G23">
-        <v>0.3117973805512833</v>
+        <v>0.5466292757114815</v>
       </c>
       <c r="H23">
-        <v>0.2426469325781255</v>
+        <v>0.6807525936539633</v>
       </c>
       <c r="I23">
-        <v>0.1700325123962187</v>
+        <v>0.6542231574241306</v>
       </c>
       <c r="J23">
-        <v>0.07219876093856747</v>
+        <v>0.2039112186429985</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.338286624343624</v>
+        <v>0.3866140981123607</v>
       </c>
       <c r="M23">
-        <v>0.7882040918912949</v>
+        <v>0.3787050945590664</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.119455117311531</v>
+        <v>2.426927780980492</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.810080183909179</v>
+        <v>1.455269753973084</v>
       </c>
       <c r="C24">
-        <v>0.6083644355179558</v>
+        <v>0.3277347297641029</v>
       </c>
       <c r="D24">
-        <v>0.1094858799231631</v>
+        <v>0.2251645138643354</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.496015673718702</v>
+        <v>1.112234298905832</v>
       </c>
       <c r="G24">
-        <v>0.2913589679719095</v>
+        <v>0.552004759199427</v>
       </c>
       <c r="H24">
-        <v>0.2430668314226025</v>
+        <v>0.6893540524476478</v>
       </c>
       <c r="I24">
-        <v>0.1871304240049234</v>
+        <v>0.6695254606539649</v>
       </c>
       <c r="J24">
-        <v>0.07632630894809012</v>
+        <v>0.2064700180932171</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3002188913154953</v>
+        <v>0.3780138436501659</v>
       </c>
       <c r="M24">
-        <v>0.6764461077305981</v>
+        <v>0.344892174446251</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.076424577790831</v>
+        <v>2.455941213041228</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.128398179144824</v>
+        <v>1.238924001559099</v>
       </c>
       <c r="C25">
-        <v>0.5276424045415808</v>
+        <v>0.3010857731397039</v>
       </c>
       <c r="D25">
-        <v>0.1016015332426718</v>
+        <v>0.224823211958352</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4780097485219841</v>
+        <v>1.12598502581416</v>
       </c>
       <c r="G25">
-        <v>0.2738290642934587</v>
+        <v>0.5594679023665989</v>
       </c>
       <c r="H25">
-        <v>0.2461255627789072</v>
+        <v>0.6999180042384125</v>
       </c>
       <c r="I25">
-        <v>0.2092061185903429</v>
+        <v>0.6876527730892388</v>
       </c>
       <c r="J25">
-        <v>0.08118194291201952</v>
+        <v>0.2094786211230897</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.260000568203111</v>
+        <v>0.3691482357497762</v>
       </c>
       <c r="M25">
-        <v>0.5565332759733437</v>
+        <v>0.3084609926933908</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.045005341405982</v>
+        <v>2.493424042247185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.079090931672567</v>
+        <v>2.62740023414915</v>
       </c>
       <c r="C2">
-        <v>0.2813993398229684</v>
+        <v>0.4683839284862472</v>
       </c>
       <c r="D2">
-        <v>0.2247967378451534</v>
+        <v>0.09611449829672836</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.138276000724971</v>
+        <v>0.4690978363031348</v>
       </c>
       <c r="G2">
-        <v>0.5663902846377198</v>
+        <v>0.2643100808831989</v>
       </c>
       <c r="H2">
-        <v>0.7088038347337928</v>
+        <v>0.2504001351751981</v>
       </c>
       <c r="I2">
-        <v>0.7023932395227011</v>
+        <v>0.2282822852440152</v>
       </c>
       <c r="J2">
-        <v>0.2119088042265709</v>
+        <v>0.08508957922124161</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3629779441536414</v>
+        <v>0.2310018318696336</v>
       </c>
       <c r="M2">
-        <v>0.2816805485701721</v>
+        <v>0.4685813152267926</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.526337476135652</v>
+        <v>1.033258928956954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9704600751207977</v>
+        <v>2.287955850100218</v>
       </c>
       <c r="C3">
-        <v>0.2680210114067449</v>
+        <v>0.4282815327171647</v>
       </c>
       <c r="D3">
-        <v>0.2249199950571352</v>
+        <v>0.0925803901905482</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.147957397497322</v>
+        <v>0.465517332100255</v>
       </c>
       <c r="G3">
-        <v>0.571969731404316</v>
+        <v>0.2597431418931748</v>
       </c>
       <c r="H3">
-        <v>0.7155176558431435</v>
+        <v>0.2544575634537196</v>
       </c>
       <c r="I3">
-        <v>0.7132516209693822</v>
+        <v>0.2428301680854545</v>
       </c>
       <c r="J3">
-        <v>0.2136904709234564</v>
+        <v>0.08793846365925084</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3590213327849412</v>
+        <v>0.2116809488656202</v>
       </c>
       <c r="M3">
-        <v>0.2635630051467643</v>
+        <v>0.4090936895361992</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.551955579266348</v>
+        <v>1.031703452128056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9036174569251898</v>
+        <v>2.079434792248833</v>
       </c>
       <c r="C4">
-        <v>0.2597901016218316</v>
+        <v>0.4036716290001721</v>
       </c>
       <c r="D4">
-        <v>0.2250656620387588</v>
+        <v>0.09049715701609529</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.154568677939494</v>
+        <v>0.4644537654586074</v>
       </c>
       <c r="G4">
-        <v>0.5758328530807546</v>
+        <v>0.2577972619900137</v>
       </c>
       <c r="H4">
-        <v>0.7199814947120302</v>
+        <v>0.2574899074297718</v>
       </c>
       <c r="I4">
-        <v>0.7203469292444282</v>
+        <v>0.2525177289016085</v>
       </c>
       <c r="J4">
-        <v>0.2148510687524112</v>
+        <v>0.08978454626818966</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3567037669240278</v>
+        <v>0.1999660691424907</v>
       </c>
       <c r="M4">
-        <v>0.2524562886891744</v>
+        <v>0.3725987212062662</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.569318038925871</v>
+        <v>1.033691199946531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8763447266841808</v>
+        <v>1.99441702948684</v>
       </c>
       <c r="C5">
-        <v>0.2564320699858058</v>
+        <v>0.3936442736967933</v>
       </c>
       <c r="D5">
-        <v>0.2251426778023671</v>
+        <v>0.08966944269648991</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.157430545643642</v>
+        <v>0.4642946730032733</v>
       </c>
       <c r="G5">
-        <v>0.577516972446773</v>
+        <v>0.2572100465613971</v>
       </c>
       <c r="H5">
-        <v>0.7218864637856726</v>
+        <v>0.2588572170264172</v>
       </c>
       <c r="I5">
-        <v>0.7233459508868005</v>
+        <v>0.2566490810858113</v>
       </c>
       <c r="J5">
-        <v>0.2153408082382917</v>
+        <v>0.09056088811865948</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3557876057802218</v>
+        <v>0.1952273496050623</v>
       </c>
       <c r="M5">
-        <v>0.2479349894495897</v>
+        <v>0.3577308591867876</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.576803833957555</v>
+        <v>1.035210548783041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8718141298291471</v>
+        <v>1.980296740157428</v>
       </c>
       <c r="C6">
-        <v>0.2558742464426871</v>
+        <v>0.3919792690940653</v>
       </c>
       <c r="D6">
-        <v>0.225156534211699</v>
+        <v>0.08953326633049841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.15791588714422</v>
+        <v>0.4642845094172969</v>
       </c>
       <c r="G6">
-        <v>0.5778032518251592</v>
+        <v>0.2571246801426241</v>
       </c>
       <c r="H6">
-        <v>0.7222079728632451</v>
+        <v>0.2590920797599523</v>
       </c>
       <c r="I6">
-        <v>0.7238504349257724</v>
+        <v>0.2573459984800035</v>
       </c>
       <c r="J6">
-        <v>0.2154231437769667</v>
+        <v>0.09069124281176144</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.355637189531322</v>
+        <v>0.1944425553617251</v>
       </c>
       <c r="M6">
-        <v>0.2471845306564404</v>
+        <v>0.3552622115262736</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.578071630677343</v>
+        <v>1.035504804571104</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9032497814995963</v>
+        <v>2.078288413448888</v>
       </c>
       <c r="C7">
-        <v>0.2597448293060154</v>
+        <v>0.4035363934225416</v>
       </c>
       <c r="D7">
-        <v>0.2250666291389791</v>
+        <v>0.09048590900874132</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.15460659496933</v>
+        <v>0.4644505234477379</v>
       </c>
       <c r="G7">
-        <v>0.5758551209954916</v>
+        <v>0.2577885225309728</v>
       </c>
       <c r="H7">
-        <v>0.7200068378592448</v>
+        <v>0.257507820325344</v>
       </c>
       <c r="I7">
-        <v>0.720386939396283</v>
+        <v>0.2525727105222106</v>
       </c>
       <c r="J7">
-        <v>0.2148576055459355</v>
+        <v>0.08979491931110495</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3566912966069538</v>
+        <v>0.1999020213076577</v>
       </c>
       <c r="M7">
-        <v>0.2523952930287976</v>
+        <v>0.3723981958458396</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.569417333258443</v>
+        <v>1.033708857972158</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.04166587795379</v>
+        <v>2.51036918248758</v>
       </c>
       <c r="C8">
-        <v>0.2767901022389196</v>
+        <v>0.4545526826891262</v>
       </c>
       <c r="D8">
-        <v>0.2248247448071297</v>
+        <v>0.09487757568057731</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.141475755912047</v>
+        <v>0.4676209370191202</v>
       </c>
       <c r="G8">
-        <v>0.5682232513195444</v>
+        <v>0.2625510818161629</v>
       </c>
       <c r="H8">
-        <v>0.7110479003445747</v>
+        <v>0.2516841008035868</v>
       </c>
       <c r="I8">
-        <v>0.7060483020757022</v>
+        <v>0.2331378165935973</v>
       </c>
       <c r="J8">
-        <v>0.2125093068336827</v>
+        <v>0.08605158371999444</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3615905867436382</v>
+        <v>0.2243079355709057</v>
       </c>
       <c r="M8">
-        <v>0.2754301973912376</v>
+        <v>0.4480613719891551</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.534831618540736</v>
+        <v>1.032092954505458</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.311887316821924</v>
+        <v>3.35781178754462</v>
       </c>
       <c r="C9">
-        <v>0.3100730921034938</v>
+        <v>0.5547988170974918</v>
       </c>
       <c r="D9">
-        <v>0.2249033801543661</v>
+        <v>0.1042060226464514</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.121016584568345</v>
+        <v>0.4833650672464813</v>
       </c>
       <c r="G9">
-        <v>0.5567319123753691</v>
+        <v>0.2791758543464553</v>
       </c>
       <c r="H9">
-        <v>0.6961875735808505</v>
+        <v>0.2447670118180341</v>
       </c>
       <c r="I9">
-        <v>0.68133003331838</v>
+        <v>0.2013120457173141</v>
       </c>
       <c r="J9">
-        <v>0.2084318574471578</v>
+        <v>0.07949373622235179</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.372079378404564</v>
+        <v>0.2734456816643984</v>
       </c>
       <c r="M9">
-        <v>0.3207266898869747</v>
+        <v>0.5968602353672665</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.479971843317031</v>
+        <v>1.053723036549499</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.509593734353189</v>
+        <v>3.981962211682344</v>
       </c>
       <c r="C10">
-        <v>0.3344263052370025</v>
+        <v>0.6287300148794372</v>
       </c>
       <c r="D10">
-        <v>0.2252953225857652</v>
+        <v>0.1115383870777933</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.109209725243055</v>
+        <v>0.5015027469103117</v>
       </c>
       <c r="G10">
-        <v>0.5504145006780092</v>
+        <v>0.2965264969757513</v>
       </c>
       <c r="H10">
-        <v>0.6869182958183586</v>
+        <v>0.2427369678489484</v>
       </c>
       <c r="I10">
-        <v>0.6652444124353618</v>
+        <v>0.1821888082732421</v>
       </c>
       <c r="J10">
-        <v>0.2057559971085734</v>
+        <v>0.07517353062764975</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3803159783233667</v>
+        <v>0.3104794251502341</v>
       </c>
       <c r="M10">
-        <v>0.3540669102491023</v>
+        <v>0.7067194738269507</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.447579079107399</v>
+        <v>1.086849239928782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599339348845433</v>
+        <v>4.266589867902212</v>
       </c>
       <c r="C11">
-        <v>0.3454810096204994</v>
+        <v>0.662462377110927</v>
       </c>
       <c r="D11">
-        <v>0.2255455815091096</v>
+        <v>0.1149878932328292</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.104538546792611</v>
+        <v>0.5113596277552119</v>
       </c>
       <c r="G11">
-        <v>0.5480035395603124</v>
+        <v>0.3056983538871592</v>
       </c>
       <c r="H11">
-        <v>0.6830589527253608</v>
+        <v>0.2425482429914894</v>
       </c>
       <c r="I11">
-        <v>0.6583776663515764</v>
+        <v>0.1745138994329309</v>
       </c>
       <c r="J11">
-        <v>0.2046077549860534</v>
+        <v>0.07332108275306126</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3841768465659214</v>
+        <v>0.3275659114146663</v>
       </c>
       <c r="M11">
-        <v>0.3692444285024834</v>
+        <v>0.7568810527352809</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.43456320591784</v>
+        <v>1.106158844609155</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.633294230008119</v>
+        <v>4.374501795005301</v>
       </c>
       <c r="C12">
-        <v>0.3496634695534908</v>
+        <v>0.6752537272699044</v>
       </c>
       <c r="D12">
-        <v>0.2256506420652542</v>
+        <v>0.1163113755534511</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.102870313185242</v>
+        <v>0.5153389548841432</v>
       </c>
       <c r="G12">
-        <v>0.5471572470544004</v>
+        <v>0.3093699049768759</v>
       </c>
       <c r="H12">
-        <v>0.6816488644810477</v>
+        <v>0.2425888555585658</v>
       </c>
       <c r="I12">
-        <v>0.6558422726692825</v>
+        <v>0.1717638205898666</v>
       </c>
       <c r="J12">
-        <v>0.2041828432755484</v>
+        <v>0.07263626970731707</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3856551133287667</v>
+        <v>0.3340737516904539</v>
       </c>
       <c r="M12">
-        <v>0.3749929989887946</v>
+        <v>0.7759084988498017</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.429881914440273</v>
+        <v>1.1141248341481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.6259828009903</v>
+        <v>4.35125477785283</v>
       </c>
       <c r="C13">
-        <v>0.3487628721770761</v>
+        <v>0.6724980437397221</v>
       </c>
       <c r="D13">
-        <v>0.2256275584905936</v>
+        <v>0.1160255597806312</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.103225121042769</v>
+        <v>0.5144706996091486</v>
       </c>
       <c r="G13">
-        <v>0.5473365433950619</v>
+        <v>0.308570108367519</v>
       </c>
       <c r="H13">
-        <v>0.6819502681941287</v>
+        <v>0.2425750175670629</v>
       </c>
       <c r="I13">
-        <v>0.6563854275137935</v>
+        <v>0.1723490021512504</v>
       </c>
       <c r="J13">
-        <v>0.2042739155444107</v>
+        <v>0.07278300777064217</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3853360222960873</v>
+        <v>0.3326704498528414</v>
       </c>
       <c r="M13">
-        <v>0.3737548954902223</v>
+        <v>0.771809065867231</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.430879101284603</v>
+        <v>1.112379402952911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.602133447978588</v>
+        <v>4.275465074464819</v>
       </c>
       <c r="C14">
-        <v>0.3458251793681768</v>
+        <v>0.6635143567265231</v>
       </c>
       <c r="D14">
-        <v>0.2255540189344813</v>
+        <v>0.1150964266348353</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.104399283193786</v>
+        <v>0.511681970337925</v>
       </c>
       <c r="G14">
-        <v>0.5479325773536914</v>
+        <v>0.3059963529763081</v>
       </c>
       <c r="H14">
-        <v>0.6829419146635161</v>
+        <v>0.2425492997538186</v>
       </c>
       <c r="I14">
-        <v>0.6581677769214771</v>
+        <v>0.1742844643067016</v>
       </c>
       <c r="J14">
-        <v>0.2045725989067932</v>
+        <v>0.07326440607502605</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3842981398679655</v>
+        <v>0.3281005441316864</v>
       </c>
       <c r="M14">
-        <v>0.3697173455684251</v>
+        <v>0.758445770437568</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.434173110885553</v>
+        <v>1.106800844445331</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.587521079464864</v>
+        <v>4.229059475632766</v>
       </c>
       <c r="C15">
-        <v>0.3440252645308135</v>
+        <v>0.6580139839042829</v>
       </c>
       <c r="D15">
-        <v>0.2255103126406084</v>
+        <v>0.1145295752693585</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.105131597932051</v>
+        <v>0.5100064117176402</v>
       </c>
       <c r="G15">
-        <v>0.5483063536171713</v>
+        <v>0.3044461313415994</v>
       </c>
       <c r="H15">
-        <v>0.683556014977647</v>
+        <v>0.2425483403241202</v>
       </c>
       <c r="I15">
-        <v>0.6592679710706975</v>
+        <v>0.1754906127775406</v>
       </c>
       <c r="J15">
-        <v>0.2047568400503383</v>
+        <v>0.07356146079185955</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3836645172753634</v>
+        <v>0.3253063316647768</v>
       </c>
       <c r="M15">
-        <v>0.3672443709273878</v>
+        <v>0.7502647513741749</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.436223030533711</v>
+        <v>1.103470324770456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.503724593054869</v>
+        <v>3.963377623553981</v>
       </c>
       <c r="C16">
-        <v>0.3337033510073582</v>
+        <v>0.6265278159837919</v>
       </c>
       <c r="D16">
-        <v>0.2252804109244906</v>
+        <v>0.1113153178825499</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.109529080549045</v>
+        <v>0.5008922217456231</v>
       </c>
       <c r="G16">
-        <v>0.5505813875249004</v>
+        <v>0.2959540457634517</v>
       </c>
       <c r="H16">
-        <v>0.6871777011959139</v>
+        <v>0.2427646264051049</v>
       </c>
       <c r="I16">
-        <v>0.6657022467312217</v>
+        <v>0.1827117464159489</v>
       </c>
       <c r="J16">
-        <v>0.2058324243767711</v>
+        <v>0.07529690029536873</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3800659423415311</v>
+        <v>0.3093678655384338</v>
       </c>
       <c r="M16">
-        <v>0.3530752092540439</v>
+        <v>0.7034455091110203</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.448464323398937</v>
+        <v>1.08567634609777</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.452267394816715</v>
+        <v>3.800589375692425</v>
       </c>
       <c r="C17">
-        <v>0.3273649017425271</v>
+        <v>0.6072400283837851</v>
       </c>
       <c r="D17">
-        <v>0.2251577656645907</v>
+        <v>0.109373249164058</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.112406039997119</v>
+        <v>0.4957232311346118</v>
       </c>
       <c r="G17">
-        <v>0.5520956880706578</v>
+        <v>0.2910820038694553</v>
       </c>
       <c r="H17">
-        <v>0.6894909883345832</v>
+        <v>0.2430899427279627</v>
       </c>
       <c r="I17">
-        <v>0.669764958828809</v>
+        <v>0.187410234297932</v>
       </c>
       <c r="J17">
-        <v>0.2065099222470028</v>
+        <v>0.0763907434506752</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3778874217305486</v>
+        <v>0.2996536522786073</v>
       </c>
       <c r="M17">
-        <v>0.3443853961586782</v>
+        <v>0.674774922903346</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.456414601959082</v>
+        <v>1.075876892849507</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.422652632899485</v>
+        <v>3.707021750697038</v>
       </c>
       <c r="C18">
-        <v>0.3237169814903496</v>
+        <v>0.5961554765172536</v>
       </c>
       <c r="D18">
-        <v>0.2250940000845958</v>
+        <v>0.1082668975163443</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.114126661127706</v>
+        <v>0.4929003232441147</v>
       </c>
       <c r="G18">
-        <v>0.5530102328719195</v>
+        <v>0.2883991991867347</v>
       </c>
       <c r="H18">
-        <v>0.6908551615473328</v>
+        <v>0.243345806855416</v>
       </c>
       <c r="I18">
-        <v>0.6721441387060789</v>
+        <v>0.1902085306395485</v>
       </c>
       <c r="J18">
-        <v>0.2069060989258151</v>
+        <v>0.0770304856944648</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3766451334097951</v>
+        <v>0.2940886533404381</v>
       </c>
       <c r="M18">
-        <v>0.3393882933036778</v>
+        <v>0.6583015140526527</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.461149249650987</v>
+        <v>1.070636827721657</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.412622569661437</v>
+        <v>3.67535147737533</v>
       </c>
       <c r="C19">
-        <v>0.3224814879485507</v>
+        <v>0.5924039383174033</v>
       </c>
       <c r="D19">
-        <v>0.2250735757464639</v>
+        <v>0.1078941145042194</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.11472054690848</v>
+        <v>0.4919698590513661</v>
       </c>
       <c r="G19">
-        <v>0.5533273594539097</v>
+        <v>0.2875109399266123</v>
       </c>
       <c r="H19">
-        <v>0.691322823963624</v>
+        <v>0.2434440568785234</v>
       </c>
       <c r="I19">
-        <v>0.6729569703721481</v>
+        <v>0.1911721842449943</v>
       </c>
       <c r="J19">
-        <v>0.2070413542354697</v>
+        <v>0.07724889762048903</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.376226365050826</v>
+        <v>0.2922081895735573</v>
       </c>
       <c r="M19">
-        <v>0.3376965520623685</v>
+        <v>0.6527266834641949</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.46278011191346</v>
+        <v>1.068929400700483</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.457746974531403</v>
+        <v>3.817911648057418</v>
       </c>
       <c r="C20">
-        <v>0.3280398716572961</v>
+        <v>0.6092922644659495</v>
       </c>
       <c r="D20">
-        <v>0.225170120496756</v>
+        <v>0.1095788749572222</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.112092965385145</v>
+        <v>0.4962578267205231</v>
       </c>
       <c r="G20">
-        <v>0.5519299790538383</v>
+        <v>0.2915881750275133</v>
       </c>
       <c r="H20">
-        <v>0.6892412543496746</v>
+        <v>0.2430481515629737</v>
       </c>
       <c r="I20">
-        <v>0.6693280857360406</v>
+        <v>0.1869000890120347</v>
       </c>
       <c r="J20">
-        <v>0.2064371291048026</v>
+        <v>0.07627320255708625</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3781182186201875</v>
+        <v>0.3006854109507486</v>
       </c>
       <c r="M20">
-        <v>0.345310335996281</v>
+        <v>0.6778251411940062</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.455551527827026</v>
+        <v>1.076878732869829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.609139408438864</v>
+        <v>4.297722586359498</v>
       </c>
       <c r="C21">
-        <v>0.3466881542816793</v>
+        <v>0.6661525782839135</v>
       </c>
       <c r="D21">
-        <v>0.2255753403768637</v>
+        <v>0.1153688610287347</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.10405167191152</v>
+        <v>0.5124942604498841</v>
       </c>
       <c r="G21">
-        <v>0.5477556968833852</v>
+        <v>0.3067468239534463</v>
       </c>
       <c r="H21">
-        <v>0.682649250271254</v>
+        <v>0.2425537587142088</v>
       </c>
       <c r="I21">
-        <v>0.6576424958046303</v>
+        <v>0.1737116578199256</v>
       </c>
       <c r="J21">
-        <v>0.2044845997843581</v>
+        <v>0.07312255167902215</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3846025515707794</v>
+        <v>0.3294417911615852</v>
       </c>
       <c r="M21">
-        <v>0.3709032431078469</v>
+        <v>0.7623699697879616</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.433198860450091</v>
+        <v>1.108421291350624</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.707908190966521</v>
+        <v>4.612077403651824</v>
       </c>
       <c r="C22">
-        <v>0.3588540792550532</v>
+        <v>0.7034185309410361</v>
       </c>
       <c r="D22">
-        <v>0.2259001445559221</v>
+        <v>0.1192538025431844</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.099382832635349</v>
+        <v>0.5245519497014257</v>
       </c>
       <c r="G22">
-        <v>0.5454163179422409</v>
+        <v>0.3178174924095742</v>
       </c>
       <c r="H22">
-        <v>0.6786403587270087</v>
+        <v>0.2428872027607838</v>
       </c>
       <c r="I22">
-        <v>0.6503835791043535</v>
+        <v>0.1660075031220209</v>
       </c>
       <c r="J22">
-        <v>0.2032662191191221</v>
+        <v>0.07116080185664586</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3889350250025245</v>
+        <v>0.3484562590056868</v>
       </c>
       <c r="M22">
-        <v>0.3876363484480905</v>
+        <v>0.8178163305697908</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.420033044277659</v>
+        <v>1.132869889025301</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.655210169259306</v>
+        <v>4.444219582827316</v>
       </c>
       <c r="C23">
-        <v>0.3523629930125196</v>
+        <v>0.6835183229925406</v>
       </c>
       <c r="D23">
-        <v>0.225721321432097</v>
+        <v>0.1171708177510027</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.10182100317904</v>
+        <v>0.5179787222154459</v>
       </c>
       <c r="G23">
-        <v>0.5466292757114815</v>
+        <v>0.3117973805513117</v>
       </c>
       <c r="H23">
-        <v>0.6807525936539633</v>
+        <v>0.2426469325781113</v>
       </c>
       <c r="I23">
-        <v>0.6542231574241306</v>
+        <v>0.1700325123962187</v>
       </c>
       <c r="J23">
-        <v>0.2039112186429985</v>
+        <v>0.07219876093856215</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3866140981123607</v>
+        <v>0.3382866243436666</v>
       </c>
       <c r="M23">
-        <v>0.3787050945590664</v>
+        <v>0.7882040918912949</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.426927780980492</v>
+        <v>1.119455117311531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.455269753973084</v>
+        <v>3.810080183909236</v>
       </c>
       <c r="C24">
-        <v>0.3277347297641029</v>
+        <v>0.6083644355180127</v>
       </c>
       <c r="D24">
-        <v>0.2251645138643354</v>
+        <v>0.1094858799229712</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.112234298905832</v>
+        <v>0.4960156737186736</v>
       </c>
       <c r="G24">
-        <v>0.552004759199427</v>
+        <v>0.2913589679718243</v>
       </c>
       <c r="H24">
-        <v>0.6893540524476478</v>
+        <v>0.2430668314224746</v>
       </c>
       <c r="I24">
-        <v>0.6695254606539649</v>
+        <v>0.1871304240049199</v>
       </c>
       <c r="J24">
-        <v>0.2064700180932171</v>
+        <v>0.0763263089480386</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3780138436501659</v>
+        <v>0.3002188913154953</v>
       </c>
       <c r="M24">
-        <v>0.344892174446251</v>
+        <v>0.676446107730591</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.455941213041228</v>
+        <v>1.076424577790803</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.238924001559099</v>
+        <v>3.128398179145108</v>
       </c>
       <c r="C25">
-        <v>0.3010857731397039</v>
+        <v>0.5276424045414956</v>
       </c>
       <c r="D25">
-        <v>0.224823211958352</v>
+        <v>0.1016015332427855</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.12598502581416</v>
+        <v>0.4780097485219912</v>
       </c>
       <c r="G25">
-        <v>0.5594679023665989</v>
+        <v>0.2738290642935723</v>
       </c>
       <c r="H25">
-        <v>0.6999180042384125</v>
+        <v>0.2461255627789143</v>
       </c>
       <c r="I25">
-        <v>0.6876527730892388</v>
+        <v>0.2092061185903589</v>
       </c>
       <c r="J25">
-        <v>0.2094786211230897</v>
+        <v>0.08118194291189162</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3691482357497762</v>
+        <v>0.2600005682030826</v>
       </c>
       <c r="M25">
-        <v>0.3084609926933908</v>
+        <v>0.5565332759733366</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.493424042247185</v>
+        <v>1.045005341405982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.62740023414915</v>
+        <v>1.786806486541877</v>
       </c>
       <c r="C2">
-        <v>0.4683839284862472</v>
+        <v>0.634990686037213</v>
       </c>
       <c r="D2">
-        <v>0.09611449829672836</v>
+        <v>0.02382613556543234</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4690978363031348</v>
+        <v>0.7803951237890345</v>
       </c>
       <c r="G2">
-        <v>0.2643100808831989</v>
+        <v>0.6991358177737794</v>
       </c>
       <c r="H2">
-        <v>0.2504001351751981</v>
+        <v>0.0009309110291897404</v>
       </c>
       <c r="I2">
-        <v>0.2282822852440152</v>
+        <v>0.009280090437258082</v>
       </c>
       <c r="J2">
-        <v>0.08508957922124161</v>
+        <v>0.4390070891432458</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3609762452697041</v>
       </c>
       <c r="L2">
-        <v>0.2310018318696336</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4685813152267926</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.033258928956954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.559385226535312</v>
+      </c>
+      <c r="P2">
+        <v>0.6511223942561712</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.287955850100218</v>
+        <v>1.554488024540632</v>
       </c>
       <c r="C3">
-        <v>0.4282815327171647</v>
+        <v>0.5575233206299117</v>
       </c>
       <c r="D3">
-        <v>0.0925803901905482</v>
+        <v>0.0218826649128907</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.465517332100255</v>
+        <v>0.7021497844569211</v>
       </c>
       <c r="G3">
-        <v>0.2597431418931748</v>
+        <v>0.626229207723398</v>
       </c>
       <c r="H3">
-        <v>0.2544575634537196</v>
+        <v>0.0002214434651039987</v>
       </c>
       <c r="I3">
-        <v>0.2428301680854545</v>
+        <v>0.006457750206528612</v>
       </c>
       <c r="J3">
-        <v>0.08793846365925084</v>
+        <v>0.4098149491010901</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3425170465132155</v>
       </c>
       <c r="L3">
-        <v>0.2116809488656202</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4090936895361992</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.031703452128056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.225866985587132</v>
+      </c>
+      <c r="P3">
+        <v>0.6794303289528347</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.079434792248833</v>
+        <v>1.411388662404988</v>
       </c>
       <c r="C4">
-        <v>0.4036716290001721</v>
+        <v>0.5102939419281824</v>
       </c>
       <c r="D4">
-        <v>0.09049715701609529</v>
+        <v>0.02069057893682213</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4644537654586074</v>
+        <v>0.6548331258626234</v>
       </c>
       <c r="G4">
-        <v>0.2577972619900137</v>
+        <v>0.5821000844224642</v>
       </c>
       <c r="H4">
-        <v>0.2574899074297718</v>
+        <v>2.502303584428489E-05</v>
       </c>
       <c r="I4">
-        <v>0.2525177289016085</v>
+        <v>0.004967951494948331</v>
       </c>
       <c r="J4">
-        <v>0.08978454626818966</v>
+        <v>0.3923046242766191</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3314581604940123</v>
       </c>
       <c r="L4">
-        <v>0.1999660691424907</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3725987212062662</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.033691199946531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.021724382269838</v>
+      </c>
+      <c r="P4">
+        <v>0.6972666055177119</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.99441702948684</v>
+        <v>1.351760956860971</v>
       </c>
       <c r="C5">
-        <v>0.3936442736967933</v>
+        <v>0.4916520232340531</v>
       </c>
       <c r="D5">
-        <v>0.08966944269648991</v>
+        <v>0.02024241024672335</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4642946730032733</v>
+        <v>0.6349495497112727</v>
       </c>
       <c r="G5">
-        <v>0.2572100465613971</v>
+        <v>0.5634083544247943</v>
       </c>
       <c r="H5">
-        <v>0.2588572170264172</v>
+        <v>8.083835512096016E-07</v>
       </c>
       <c r="I5">
-        <v>0.2566490810858113</v>
+        <v>0.004468190168894104</v>
       </c>
       <c r="J5">
-        <v>0.09056088811865948</v>
+        <v>0.3848339168846735</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3264630783955482</v>
       </c>
       <c r="L5">
-        <v>0.1952273496050623</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3577308591867876</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.035210548783041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.938641673135507</v>
+      </c>
+      <c r="P5">
+        <v>0.7045456415787101</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.980296740157428</v>
+        <v>1.340398101647196</v>
       </c>
       <c r="C6">
-        <v>0.3919792690940653</v>
+        <v>0.4892146668118755</v>
       </c>
       <c r="D6">
-        <v>0.08953326633049841</v>
+        <v>0.02021398724461321</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4642845094172969</v>
+        <v>0.6307206075726342</v>
       </c>
       <c r="G6">
-        <v>0.2571246801426241</v>
+        <v>0.5592726576592355</v>
       </c>
       <c r="H6">
-        <v>0.2590920797599523</v>
+        <v>4.294275202099129E-08</v>
       </c>
       <c r="I6">
-        <v>0.2573459984800035</v>
+        <v>0.004458313091546096</v>
       </c>
       <c r="J6">
-        <v>0.09069124281176144</v>
+        <v>0.3830720177367084</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3249635339335519</v>
       </c>
       <c r="L6">
-        <v>0.1944425553617251</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3552622115262736</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.035504804571104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.92483657359341</v>
+      </c>
+      <c r="P6">
+        <v>0.7056420115138811</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.078288413448888</v>
+        <v>1.406597874341855</v>
       </c>
       <c r="C7">
-        <v>0.4035363934225416</v>
+        <v>0.5118338798003492</v>
       </c>
       <c r="D7">
-        <v>0.09048590900874132</v>
+        <v>0.02081056151169136</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4644505234477379</v>
+        <v>0.6520003161408567</v>
       </c>
       <c r="G7">
-        <v>0.2577885225309728</v>
+        <v>0.5790000565774989</v>
       </c>
       <c r="H7">
-        <v>0.257507820325344</v>
+        <v>2.431252967083353E-05</v>
       </c>
       <c r="I7">
-        <v>0.2525727105222106</v>
+        <v>0.005136034523394173</v>
       </c>
       <c r="J7">
-        <v>0.08979491931110495</v>
+        <v>0.3907621148624116</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.329547375261555</v>
       </c>
       <c r="L7">
-        <v>0.1999020213076577</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3723981958458396</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.033708857972158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.020560728787842</v>
+      </c>
+      <c r="P7">
+        <v>0.6970515056925977</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.51036918248758</v>
+        <v>1.701447675455114</v>
       </c>
       <c r="C8">
-        <v>0.4545526826891262</v>
+        <v>0.6105955101803318</v>
       </c>
       <c r="D8">
-        <v>0.09487757568057731</v>
+        <v>0.02332484736493967</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4676209370191202</v>
+        <v>0.7498387775494848</v>
       </c>
       <c r="G8">
-        <v>0.2625510818161629</v>
+        <v>0.6700604399909338</v>
       </c>
       <c r="H8">
-        <v>0.2516841008035868</v>
+        <v>0.0006329342795252657</v>
       </c>
       <c r="I8">
-        <v>0.2331378165935973</v>
+        <v>0.008454168719352673</v>
       </c>
       <c r="J8">
-        <v>0.08605158371999444</v>
+        <v>0.4269354476311378</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3521026856410288</v>
       </c>
       <c r="L8">
-        <v>0.2243079355709057</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4480613719891551</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.032092954505458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.444169473096025</v>
+      </c>
+      <c r="P8">
+        <v>0.6604269947914441</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.35781178754462</v>
+        <v>2.283866262830827</v>
       </c>
       <c r="C9">
-        <v>0.5547988170974918</v>
+        <v>0.8043543714470331</v>
       </c>
       <c r="D9">
-        <v>0.1042060226464514</v>
+        <v>0.02804207707174911</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4833650672464813</v>
+        <v>0.952985827334345</v>
       </c>
       <c r="G9">
-        <v>0.2791758543464553</v>
+        <v>0.8596988120795288</v>
       </c>
       <c r="H9">
-        <v>0.2447670118180341</v>
+        <v>0.003930670304652883</v>
       </c>
       <c r="I9">
-        <v>0.2013120457173141</v>
+        <v>0.01687664822732504</v>
       </c>
       <c r="J9">
-        <v>0.07949373622235179</v>
+        <v>0.504148110073146</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4021370197110912</v>
       </c>
       <c r="L9">
-        <v>0.2734456816643984</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5968602353672665</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.053723036549499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.28201584615168</v>
+      </c>
+      <c r="P9">
+        <v>0.5929104614346805</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.981962211682344</v>
+        <v>2.732998066834966</v>
       </c>
       <c r="C10">
-        <v>0.6287300148794372</v>
+        <v>0.9571186474868512</v>
       </c>
       <c r="D10">
-        <v>0.1115383870777933</v>
+        <v>0.03205749925065859</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5015027469103117</v>
+        <v>1.097208451128708</v>
       </c>
       <c r="G10">
-        <v>0.2965264969757513</v>
+        <v>0.9923775011729532</v>
       </c>
       <c r="H10">
-        <v>0.2427369678489484</v>
+        <v>0.00736768219132955</v>
       </c>
       <c r="I10">
-        <v>0.1821888082732421</v>
+        <v>0.02468958291664514</v>
       </c>
       <c r="J10">
-        <v>0.07517353062764975</v>
+        <v>0.5579046035949347</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4334630321600912</v>
       </c>
       <c r="L10">
-        <v>0.3104794251502341</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7067194738269507</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.086849239928782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.700915177582843</v>
+      </c>
+      <c r="P10">
+        <v>0.5458262120215407</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.266589867902212</v>
+        <v>3.148402891396472</v>
       </c>
       <c r="C11">
-        <v>0.662462377110927</v>
+        <v>1.088706231149814</v>
       </c>
       <c r="D11">
-        <v>0.1149878932328292</v>
+        <v>0.03845967017975482</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5113596277552119</v>
+        <v>1.08135507522374</v>
       </c>
       <c r="G11">
-        <v>0.3056983538871592</v>
+        <v>0.9624756980336997</v>
       </c>
       <c r="H11">
-        <v>0.2425482429914894</v>
+        <v>0.02258875671383009</v>
       </c>
       <c r="I11">
-        <v>0.1745138994329309</v>
+        <v>0.02801652547565947</v>
       </c>
       <c r="J11">
-        <v>0.07332108275306126</v>
+        <v>0.5369354640475876</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3905360734533119</v>
       </c>
       <c r="L11">
-        <v>0.3275659114146663</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7568810527352809</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.106158844609155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.334624037593088</v>
+      </c>
+      <c r="P11">
+        <v>0.5418369157877194</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.374501795005301</v>
+        <v>3.421471310873073</v>
       </c>
       <c r="C12">
-        <v>0.6752537272699044</v>
+        <v>1.166676626801149</v>
       </c>
       <c r="D12">
-        <v>0.1163113755534511</v>
+        <v>0.04316484869711701</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5153389548841432</v>
+        <v>1.041735405335984</v>
       </c>
       <c r="G12">
-        <v>0.3093699049768759</v>
+        <v>0.9145777512616888</v>
       </c>
       <c r="H12">
-        <v>0.2425888555585658</v>
+        <v>0.05939291717284334</v>
       </c>
       <c r="I12">
-        <v>0.1717638205898666</v>
+        <v>0.02898776749122334</v>
       </c>
       <c r="J12">
-        <v>0.07263626970731707</v>
+        <v>0.5102960978404951</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3521465348055841</v>
       </c>
       <c r="L12">
-        <v>0.3340737516904539</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7759084988498017</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.1141248341481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.372504697481389</v>
+      </c>
+      <c r="P12">
+        <v>0.5697139158021542</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.35125477785283</v>
+        <v>3.591069252873865</v>
       </c>
       <c r="C13">
-        <v>0.6724980437397221</v>
+        <v>1.209659887314217</v>
       </c>
       <c r="D13">
-        <v>0.1160255597806312</v>
+        <v>0.04697160338005091</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5144706996091486</v>
+        <v>0.9770609069576466</v>
       </c>
       <c r="G13">
-        <v>0.308570108367519</v>
+        <v>0.8452009050720619</v>
       </c>
       <c r="H13">
-        <v>0.2425750175670629</v>
+        <v>0.1140038337798472</v>
       </c>
       <c r="I13">
-        <v>0.1723490021512504</v>
+        <v>0.02834583012689418</v>
       </c>
       <c r="J13">
-        <v>0.07278300777064217</v>
+        <v>0.4752699744594082</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3119730793268687</v>
       </c>
       <c r="L13">
-        <v>0.3326704498528414</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.771809065867231</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.112379402952911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6581447702196996</v>
+      </c>
+      <c r="P13">
+        <v>0.6210031360090014</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.275465074464819</v>
+        <v>3.661241005926854</v>
       </c>
       <c r="C14">
-        <v>0.6635143567265231</v>
+        <v>1.224436231162599</v>
       </c>
       <c r="D14">
-        <v>0.1150964266348353</v>
+        <v>0.04928809207657281</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.511681970337925</v>
+        <v>0.9201262962559866</v>
       </c>
       <c r="G14">
-        <v>0.3059963529763081</v>
+        <v>0.7866387897764042</v>
       </c>
       <c r="H14">
-        <v>0.2425492997538186</v>
+        <v>0.1628736600777643</v>
       </c>
       <c r="I14">
-        <v>0.1742844643067016</v>
+        <v>0.0272567719415937</v>
       </c>
       <c r="J14">
-        <v>0.07326440607502605</v>
+        <v>0.4467682298392077</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2829664476541254</v>
       </c>
       <c r="L14">
-        <v>0.3281005441316864</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.758445770437568</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.106800844445331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3043317059345156</v>
+      </c>
+      <c r="P14">
+        <v>0.6693245670260666</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.229059475632766</v>
+        <v>3.652472746449632</v>
       </c>
       <c r="C15">
-        <v>0.6580139839042829</v>
+        <v>1.221043161239891</v>
       </c>
       <c r="D15">
-        <v>0.1145295752693585</v>
+        <v>0.04967817840579869</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5100064117176402</v>
+        <v>0.9000246849043521</v>
       </c>
       <c r="G15">
-        <v>0.3044461313415994</v>
+        <v>0.7667536229613034</v>
       </c>
       <c r="H15">
-        <v>0.2425483403241202</v>
+        <v>0.1752680724032416</v>
       </c>
       <c r="I15">
-        <v>0.1754906127775406</v>
+        <v>0.02670868032607565</v>
       </c>
       <c r="J15">
-        <v>0.07356146079185955</v>
+        <v>0.4375415442835759</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2747906139331278</v>
       </c>
       <c r="L15">
-        <v>0.3253063316647768</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7502647513741749</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.103470324770456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.236258142743015</v>
+      </c>
+      <c r="P15">
+        <v>0.6836091957025303</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963377623553981</v>
+        <v>3.414018285711904</v>
       </c>
       <c r="C16">
-        <v>0.6265278159837919</v>
+        <v>1.145073371705337</v>
       </c>
       <c r="D16">
-        <v>0.1113153178825499</v>
+        <v>0.04709727997952484</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5008922217456231</v>
+        <v>0.8495086025582879</v>
       </c>
       <c r="G16">
-        <v>0.2959540457634517</v>
+        <v>0.7222915772499192</v>
       </c>
       <c r="H16">
-        <v>0.2427646264051049</v>
+        <v>0.1621862776231779</v>
       </c>
       <c r="I16">
-        <v>0.1827117464159489</v>
+        <v>0.02332940685013618</v>
       </c>
       <c r="J16">
-        <v>0.07529690029536873</v>
+        <v>0.4205914301483631</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2686487695636295</v>
       </c>
       <c r="L16">
-        <v>0.3093678655384338</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7034455091110203</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.08567634609777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2314066085362469</v>
+      </c>
+      <c r="P16">
+        <v>0.6885104492333909</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.800589375692425</v>
+        <v>3.194586436891655</v>
       </c>
       <c r="C17">
-        <v>0.6072400283837851</v>
+        <v>1.079405818918616</v>
       </c>
       <c r="D17">
-        <v>0.109373249164058</v>
+        <v>0.043894670296865</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4957232311346118</v>
+        <v>0.8410833873012109</v>
       </c>
       <c r="G17">
-        <v>0.2910820038694553</v>
+        <v>0.7192509296820617</v>
       </c>
       <c r="H17">
-        <v>0.2430899427279627</v>
+        <v>0.1242785594890847</v>
       </c>
       <c r="I17">
-        <v>0.187410234297932</v>
+        <v>0.02139720141273482</v>
       </c>
       <c r="J17">
-        <v>0.0763907434506752</v>
+        <v>0.4227671732780607</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2791848111577089</v>
       </c>
       <c r="L17">
-        <v>0.2996536522786073</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.674774922903346</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.075876892849507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3888242865685925</v>
+      </c>
+      <c r="P17">
+        <v>0.6660003789282527</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.707021750697038</v>
+        <v>2.973969998196992</v>
       </c>
       <c r="C18">
-        <v>0.5961554765172536</v>
+        <v>1.013881355972927</v>
       </c>
       <c r="D18">
-        <v>0.1082668975163443</v>
+        <v>0.03978859724847439</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4929003232441147</v>
+        <v>0.8699161497338821</v>
       </c>
       <c r="G18">
-        <v>0.2883991991867347</v>
+        <v>0.7540275065493631</v>
       </c>
       <c r="H18">
-        <v>0.243345806855416</v>
+        <v>0.07162254845625426</v>
       </c>
       <c r="I18">
-        <v>0.1902085306395485</v>
+        <v>0.02025473702366831</v>
       </c>
       <c r="J18">
-        <v>0.0770304856944648</v>
+        <v>0.4428008445723606</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3073106313248957</v>
       </c>
       <c r="L18">
-        <v>0.2940886533404381</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6583015140526527</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.070636827721657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.829620273919879</v>
+      </c>
+      <c r="P18">
+        <v>0.625734218861318</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.67535147737533</v>
+        <v>2.764179592140749</v>
       </c>
       <c r="C19">
-        <v>0.5924039383174033</v>
+        <v>0.958024366400366</v>
       </c>
       <c r="D19">
-        <v>0.1078941145042194</v>
+        <v>0.03577362480410784</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4919698590513661</v>
+        <v>0.9228504009258813</v>
       </c>
       <c r="G19">
-        <v>0.2875109399266123</v>
+        <v>0.8130586365359704</v>
       </c>
       <c r="H19">
-        <v>0.2434440568785234</v>
+        <v>0.0273379133798386</v>
       </c>
       <c r="I19">
-        <v>0.1911721842449943</v>
+        <v>0.02031142178134981</v>
       </c>
       <c r="J19">
-        <v>0.07724889762048903</v>
+        <v>0.4737126543659542</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.346138846864811</v>
       </c>
       <c r="L19">
-        <v>0.2922081895735573</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6527266834641949</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.068929400700483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.664529506729593</v>
+      </c>
+      <c r="P19">
+        <v>0.5894784960445527</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.817911648057418</v>
+        <v>2.603040329062708</v>
       </c>
       <c r="C20">
-        <v>0.6092922644659495</v>
+        <v>0.9227965377646115</v>
       </c>
       <c r="D20">
-        <v>0.1095788749572222</v>
+        <v>0.03143681313392577</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4962578267205231</v>
+        <v>1.050403437191719</v>
       </c>
       <c r="G20">
-        <v>0.2915881750275133</v>
+        <v>0.9476994843236781</v>
       </c>
       <c r="H20">
-        <v>0.2430481515629737</v>
+        <v>0.006324236010851081</v>
       </c>
       <c r="I20">
-        <v>0.1869000890120347</v>
+        <v>0.02303748708851305</v>
       </c>
       <c r="J20">
-        <v>0.07627320255708625</v>
+        <v>0.5388229275093437</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4190516330526535</v>
       </c>
       <c r="L20">
-        <v>0.3006854109507486</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6778251411940062</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.076878732869829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.581993684983289</v>
+      </c>
+      <c r="P20">
+        <v>0.5574931185512222</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.297722586359498</v>
+        <v>2.913017193687551</v>
       </c>
       <c r="C21">
-        <v>0.6661525782839135</v>
+        <v>1.030082923085644</v>
       </c>
       <c r="D21">
-        <v>0.1153688610287347</v>
+        <v>0.03372213926455458</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5124942604498841</v>
+        <v>1.179015788323525</v>
       </c>
       <c r="G21">
-        <v>0.3067468239534463</v>
+        <v>1.069047412299881</v>
       </c>
       <c r="H21">
-        <v>0.2425537587142088</v>
+        <v>0.01041985306716901</v>
       </c>
       <c r="I21">
-        <v>0.1737116578199256</v>
+        <v>0.02972243507080741</v>
       </c>
       <c r="J21">
-        <v>0.07312255167902215</v>
+        <v>0.5899934029567646</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4550971904948042</v>
       </c>
       <c r="L21">
-        <v>0.3294417911615852</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7623699697879616</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.108421291350624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.22167508195308</v>
+      </c>
+      <c r="P21">
+        <v>0.5225981217595548</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.612077403651824</v>
+        <v>3.133422709162346</v>
       </c>
       <c r="C22">
-        <v>0.7034185309410361</v>
+        <v>1.101976330918234</v>
       </c>
       <c r="D22">
-        <v>0.1192538025431844</v>
+        <v>0.0352862954177624</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5245519497014257</v>
+        <v>1.263287373529508</v>
       </c>
       <c r="G22">
-        <v>0.3178174924095742</v>
+        <v>1.148350957921878</v>
       </c>
       <c r="H22">
-        <v>0.2428872027607838</v>
+        <v>0.01320778537171607</v>
       </c>
       <c r="I22">
-        <v>0.1660075031220209</v>
+        <v>0.03424541186301244</v>
       </c>
       <c r="J22">
-        <v>0.07116080185664586</v>
+        <v>0.6234723206923718</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.478302779837172</v>
       </c>
       <c r="L22">
-        <v>0.3484562590056868</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8178163305697908</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.132869889025301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.53855502894298</v>
+      </c>
+      <c r="P22">
+        <v>0.5005670736338521</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.444219582827316</v>
+        <v>3.020693042320715</v>
       </c>
       <c r="C23">
-        <v>0.6835183229925406</v>
+        <v>1.06132319140454</v>
       </c>
       <c r="D23">
-        <v>0.1171708177510027</v>
+        <v>0.0342926793785665</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5179787222154459</v>
+        <v>1.221267277910883</v>
       </c>
       <c r="G23">
-        <v>0.3117973805513117</v>
+        <v>1.109333894003527</v>
       </c>
       <c r="H23">
-        <v>0.2426469325781113</v>
+        <v>0.01168574521113547</v>
       </c>
       <c r="I23">
-        <v>0.1700325123962187</v>
+        <v>0.03159091423083282</v>
       </c>
       <c r="J23">
-        <v>0.07219876093856215</v>
+        <v>0.6072589731760445</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4680629470535678</v>
       </c>
       <c r="L23">
-        <v>0.3382866243436666</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7882040918912949</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.119455117311531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.369265196747705</v>
+      </c>
+      <c r="P23">
+        <v>0.5124415266172497</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.810080183909236</v>
+        <v>2.586454422838926</v>
       </c>
       <c r="C24">
-        <v>0.6083644355180127</v>
+        <v>0.9125780817135762</v>
       </c>
       <c r="D24">
-        <v>0.1094858799229712</v>
+        <v>0.03078868588304928</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4960156737186736</v>
+        <v>1.060261812132865</v>
       </c>
       <c r="G24">
-        <v>0.2913589679718243</v>
+        <v>0.9589896005136183</v>
       </c>
       <c r="H24">
-        <v>0.2430668314224746</v>
+        <v>0.006702828219662615</v>
       </c>
       <c r="I24">
-        <v>0.1871304240049199</v>
+        <v>0.02268161562863469</v>
       </c>
       <c r="J24">
-        <v>0.0763263089480386</v>
+        <v>0.5446575158291864</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4269363507159412</v>
       </c>
       <c r="L24">
-        <v>0.3002188913154953</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.676446107730591</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.076424577790803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.732780780077988</v>
+      </c>
+      <c r="P24">
+        <v>0.5583890587808766</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.128398179145108</v>
+        <v>2.119135386430116</v>
       </c>
       <c r="C25">
-        <v>0.5276424045414956</v>
+        <v>0.7547943021617129</v>
       </c>
       <c r="D25">
-        <v>0.1016015332427855</v>
+        <v>0.02699930273792717</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4780097485219912</v>
+        <v>0.8924832300141077</v>
       </c>
       <c r="G25">
-        <v>0.2738290642935723</v>
+        <v>0.8024096634985511</v>
       </c>
       <c r="H25">
-        <v>0.2461255627789143</v>
+        <v>0.002780693734112605</v>
       </c>
       <c r="I25">
-        <v>0.2092061185903589</v>
+        <v>0.01462105136500291</v>
       </c>
       <c r="J25">
-        <v>0.08118194291189162</v>
+        <v>0.4801784158867548</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3849374328386759</v>
       </c>
       <c r="L25">
-        <v>0.2600005682030826</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5565332759733366</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.045005341405982</v>
+        <v>3.054210368736918</v>
+      </c>
+      <c r="P25">
+        <v>0.6103415758193296</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.786806486541877</v>
+        <v>1.671374207528117</v>
       </c>
       <c r="C2">
-        <v>0.634990686037213</v>
+        <v>0.6749829630578574</v>
       </c>
       <c r="D2">
-        <v>0.02382613556543234</v>
+        <v>0.0282894344944431</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7803951237890345</v>
+        <v>0.7130242912790123</v>
       </c>
       <c r="G2">
-        <v>0.6991358177737794</v>
+        <v>0.6059572535533562</v>
       </c>
       <c r="H2">
-        <v>0.0009309110291897404</v>
+        <v>0.0008883146742610926</v>
       </c>
       <c r="I2">
-        <v>0.009280090437258082</v>
+        <v>0.008236316781860431</v>
       </c>
       <c r="J2">
-        <v>0.4390070891432458</v>
+        <v>0.4529236084481028</v>
       </c>
       <c r="K2">
-        <v>0.3609762452697041</v>
+        <v>0.3138125569405226</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1789657522621049</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07579639197710009</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.559385226535312</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6511223942561712</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.557288416254892</v>
+      </c>
+      <c r="R2">
+        <v>0.6517718828591761</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.554488024540632</v>
+        <v>1.461979069659037</v>
       </c>
       <c r="C3">
-        <v>0.5575233206299117</v>
+        <v>0.5885455791425898</v>
       </c>
       <c r="D3">
-        <v>0.0218826649128907</v>
+        <v>0.02543129920286447</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7021497844569211</v>
+        <v>0.6468602459426904</v>
       </c>
       <c r="G3">
-        <v>0.626229207723398</v>
+        <v>0.5456861414354961</v>
       </c>
       <c r="H3">
-        <v>0.0002214434651039987</v>
+        <v>0.0002081065041710239</v>
       </c>
       <c r="I3">
-        <v>0.006457750206528612</v>
+        <v>0.005941453899620974</v>
       </c>
       <c r="J3">
-        <v>0.4098149491010901</v>
+        <v>0.4279780677758396</v>
       </c>
       <c r="K3">
-        <v>0.3425170465132155</v>
+        <v>0.3024861913580388</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1811093886079362</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06563714116778385</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.225866985587132</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6794303289528347</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.224622458989643</v>
+      </c>
+      <c r="R3">
+        <v>0.676956332597543</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.411388662404988</v>
+        <v>1.332562871324342</v>
       </c>
       <c r="C4">
-        <v>0.5102939419281824</v>
+        <v>0.5359170685172785</v>
       </c>
       <c r="D4">
-        <v>0.02069057893682213</v>
+        <v>0.02368890532279266</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6548331258626234</v>
+        <v>0.6066785735796429</v>
       </c>
       <c r="G4">
-        <v>0.5821000844224642</v>
+        <v>0.5091878134722094</v>
       </c>
       <c r="H4">
-        <v>2.502303584428489E-05</v>
+        <v>2.212280111058007E-05</v>
       </c>
       <c r="I4">
-        <v>0.004967951494948331</v>
+        <v>0.004718781513629811</v>
       </c>
       <c r="J4">
-        <v>0.3923046242766191</v>
+        <v>0.4127170116397707</v>
       </c>
       <c r="K4">
-        <v>0.3314581604940123</v>
+        <v>0.2956468452701486</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1823702180269109</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06005732783606277</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.021724382269838</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6972666055177119</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.020950644279679</v>
+      </c>
+      <c r="R4">
+        <v>0.69290357055608</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.351760956860971</v>
+        <v>1.278485010519688</v>
       </c>
       <c r="C5">
-        <v>0.4916520232340531</v>
+        <v>0.515117648713499</v>
       </c>
       <c r="D5">
-        <v>0.02024241024672335</v>
+        <v>0.02302288696298049</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6349495497112727</v>
+        <v>0.5896865781960017</v>
       </c>
       <c r="G5">
-        <v>0.5634083544247943</v>
+        <v>0.4936451279390894</v>
       </c>
       <c r="H5">
-        <v>8.083835512096016E-07</v>
+        <v>4.421315282776561E-07</v>
       </c>
       <c r="I5">
-        <v>0.004468190168894104</v>
+        <v>0.004328452006593153</v>
       </c>
       <c r="J5">
-        <v>0.3848339168846735</v>
+        <v>0.4060969057785258</v>
       </c>
       <c r="K5">
-        <v>0.3264630783955482</v>
+        <v>0.2923931343866819</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1826369812922906</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05780560870319285</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.938641673135507</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7045456415787101</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.938049314816553</v>
+      </c>
+      <c r="R5">
+        <v>0.69949183780483</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.340398101647196</v>
+        <v>1.268119478452093</v>
       </c>
       <c r="C6">
-        <v>0.4892146668118755</v>
+        <v>0.5123419431430136</v>
       </c>
       <c r="D6">
-        <v>0.02021398724461321</v>
+        <v>0.02296294169064339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6307206075726342</v>
+        <v>0.5859961642091562</v>
       </c>
       <c r="G6">
-        <v>0.5592726576592355</v>
+        <v>0.4901165268490075</v>
       </c>
       <c r="H6">
-        <v>4.294275202099129E-08</v>
+        <v>2.478612870504548E-10</v>
       </c>
       <c r="I6">
-        <v>0.004458313091546096</v>
+        <v>0.004354116219750459</v>
       </c>
       <c r="J6">
-        <v>0.3830720177367084</v>
+        <v>0.4044948355942211</v>
       </c>
       <c r="K6">
-        <v>0.3249635339335519</v>
+        <v>0.2912541623377756</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1823967421692174</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05726956855284904</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.92483657359341</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7056420115138811</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.924274828063076</v>
+      </c>
+      <c r="R6">
+        <v>0.7005614373919382</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.406597874341855</v>
+        <v>1.326439578168419</v>
       </c>
       <c r="C7">
-        <v>0.5118338798003492</v>
+        <v>0.5362626386706211</v>
       </c>
       <c r="D7">
-        <v>0.02081056151169136</v>
+        <v>0.02391706950704986</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6520003161408567</v>
+        <v>0.6024154069027077</v>
       </c>
       <c r="G7">
-        <v>0.5790000565774989</v>
+        <v>0.5098878508387799</v>
       </c>
       <c r="H7">
-        <v>2.431252967083353E-05</v>
+        <v>2.14047674829132E-05</v>
       </c>
       <c r="I7">
-        <v>0.005136034523394173</v>
+        <v>0.004927451041070618</v>
       </c>
       <c r="J7">
-        <v>0.3907621148624116</v>
+        <v>0.4047168251660338</v>
       </c>
       <c r="K7">
-        <v>0.329547375261555</v>
+        <v>0.2932699563521943</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1812934771488557</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05933442280744927</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.020560728787842</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6970515056925977</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.019773315301634</v>
+      </c>
+      <c r="R7">
+        <v>0.6929153746939818</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.701447675455114</v>
+        <v>1.588851729017506</v>
       </c>
       <c r="C8">
-        <v>0.6105955101803318</v>
+        <v>0.6434524915137843</v>
       </c>
       <c r="D8">
-        <v>0.02332484736493967</v>
+        <v>0.02782489061491944</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7498387775494848</v>
+        <v>0.6814705936130565</v>
       </c>
       <c r="G8">
-        <v>0.6700604399909338</v>
+        <v>0.5933905591180633</v>
       </c>
       <c r="H8">
-        <v>0.0006329342795252657</v>
+        <v>0.0006010394516406947</v>
       </c>
       <c r="I8">
-        <v>0.008454168719352673</v>
+        <v>0.007633118486104706</v>
       </c>
       <c r="J8">
-        <v>0.4269354476311378</v>
+        <v>0.4209820183679085</v>
       </c>
       <c r="K8">
-        <v>0.3521026856410288</v>
+        <v>0.30543426185627</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1778021879689966</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07068868767280634</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.444169473096025</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6604269947914441</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.442315273326685</v>
+      </c>
+      <c r="R8">
+        <v>0.6604173075810618</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.283866262830827</v>
+        <v>2.109725867550537</v>
       </c>
       <c r="C9">
-        <v>0.8043543714470331</v>
+        <v>0.8588691835307429</v>
       </c>
       <c r="D9">
-        <v>0.02804207707174911</v>
+        <v>0.03498246434877927</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.952985827334345</v>
+        <v>0.8509321291784033</v>
       </c>
       <c r="G9">
-        <v>0.8596988120795288</v>
+        <v>0.7538244159528205</v>
       </c>
       <c r="H9">
-        <v>0.003930670304652883</v>
+        <v>0.0037733262329398</v>
       </c>
       <c r="I9">
-        <v>0.01687664822732504</v>
+        <v>0.01428861914269852</v>
       </c>
       <c r="J9">
-        <v>0.504148110073146</v>
+        <v>0.4792148047424121</v>
       </c>
       <c r="K9">
-        <v>0.4021370197110912</v>
+        <v>0.3358290739623442</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1729351054983148</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1000495113441104</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.28201584615168</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5929104614346805</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.27762287020137</v>
+      </c>
+      <c r="R9">
+        <v>0.6007250336283629</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.732998066834966</v>
+        <v>2.501950600861903</v>
       </c>
       <c r="C10">
-        <v>0.9571186474868512</v>
+        <v>1.020168320234518</v>
       </c>
       <c r="D10">
-        <v>0.03205749925065859</v>
+        <v>0.04152124410542513</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.097208451128708</v>
+        <v>0.9605622461438088</v>
       </c>
       <c r="G10">
-        <v>0.9923775011729532</v>
+        <v>0.8874212996474569</v>
       </c>
       <c r="H10">
-        <v>0.00736768219132955</v>
+        <v>0.007074243204316488</v>
       </c>
       <c r="I10">
-        <v>0.02468958291664514</v>
+        <v>0.02036784023544946</v>
       </c>
       <c r="J10">
-        <v>0.5579046035949347</v>
+        <v>0.4811760059226344</v>
       </c>
       <c r="K10">
-        <v>0.4334630321600912</v>
+        <v>0.3493859409064655</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1656664088079154</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1211690056649424</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.700915177582843</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5458262120215407</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.694386629533994</v>
+      </c>
+      <c r="R10">
+        <v>0.5629417662518641</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.148402891396472</v>
+        <v>2.878230412581956</v>
       </c>
       <c r="C11">
-        <v>1.088706231149814</v>
+        <v>1.138279090338926</v>
       </c>
       <c r="D11">
-        <v>0.03845967017975482</v>
+        <v>0.050590675592872</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.08135507522374</v>
+        <v>0.9264608632401377</v>
       </c>
       <c r="G11">
-        <v>0.9624756980336997</v>
+        <v>0.9091189156879409</v>
       </c>
       <c r="H11">
-        <v>0.02258875671383009</v>
+        <v>0.02235482969099323</v>
       </c>
       <c r="I11">
-        <v>0.02801652547565947</v>
+        <v>0.02297140554024324</v>
       </c>
       <c r="J11">
-        <v>0.5369354640475876</v>
+        <v>0.3903830087474347</v>
       </c>
       <c r="K11">
-        <v>0.3905360734533119</v>
+        <v>0.305232669753174</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.144998205439542</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1104824283214754</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.334624037593088</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5418369157877194</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.329557236587178</v>
+      </c>
+      <c r="R11">
+        <v>0.5907844822889317</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.421471310873073</v>
+        <v>3.135953018982036</v>
       </c>
       <c r="C12">
-        <v>1.166676626801149</v>
+        <v>1.206620456126359</v>
       </c>
       <c r="D12">
-        <v>0.04316484869711701</v>
+        <v>0.05662811248376443</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.041735405335984</v>
+        <v>0.8847025634295562</v>
       </c>
       <c r="G12">
-        <v>0.9145777512616888</v>
+        <v>0.8899245610765121</v>
       </c>
       <c r="H12">
-        <v>0.05939291717284334</v>
+        <v>0.05922327176528341</v>
       </c>
       <c r="I12">
-        <v>0.02898776749122334</v>
+        <v>0.02364665987892334</v>
       </c>
       <c r="J12">
-        <v>0.5102960978404951</v>
+        <v>0.3406401309658236</v>
       </c>
       <c r="K12">
-        <v>0.3521465348055841</v>
+        <v>0.2717264537047868</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1317599344875404</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09927132260672522</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.372504697481389</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5697139158021542</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.368973942872017</v>
+      </c>
+      <c r="R12">
+        <v>0.642879307770059</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.591069252873865</v>
+        <v>3.314788451330799</v>
       </c>
       <c r="C13">
-        <v>1.209659887314217</v>
+        <v>1.24679955632331</v>
       </c>
       <c r="D13">
-        <v>0.04697160338005091</v>
+        <v>0.06031682783886083</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9770609069576466</v>
+        <v>0.8341398004004787</v>
       </c>
       <c r="G13">
-        <v>0.8452009050720619</v>
+        <v>0.8246976001193502</v>
       </c>
       <c r="H13">
-        <v>0.1140038337798472</v>
+        <v>0.1138974920354769</v>
       </c>
       <c r="I13">
-        <v>0.02834583012689418</v>
+        <v>0.02317585669461941</v>
       </c>
       <c r="J13">
-        <v>0.4752699744594082</v>
+        <v>0.324264013212499</v>
       </c>
       <c r="K13">
-        <v>0.3119730793268687</v>
+        <v>0.242654189758241</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1222591336631318</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08668171198526764</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6581447702196996</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6210031360090014</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6560656626507253</v>
+      </c>
+      <c r="R13">
+        <v>0.7099045269497779</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.661241005926854</v>
+        <v>3.40314195373162</v>
       </c>
       <c r="C14">
-        <v>1.224436231162599</v>
+        <v>1.262822068461617</v>
       </c>
       <c r="D14">
-        <v>0.04928809207657281</v>
+        <v>0.06184154945147924</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9201262962559866</v>
+        <v>0.793842506453359</v>
       </c>
       <c r="G14">
-        <v>0.7866387897764042</v>
+        <v>0.7592228621970207</v>
       </c>
       <c r="H14">
-        <v>0.1628736600777643</v>
+        <v>0.1628047878212584</v>
       </c>
       <c r="I14">
-        <v>0.0272567719415937</v>
+        <v>0.02242512850983935</v>
       </c>
       <c r="J14">
-        <v>0.4467682298392077</v>
+        <v>0.3255805981972202</v>
       </c>
       <c r="K14">
-        <v>0.2829664476541254</v>
+        <v>0.2237463323464013</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.116922815756805</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07721221391109623</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3043317059345156</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6693245670260666</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3031040368043421</v>
+      </c>
+      <c r="R14">
+        <v>0.7637674914966368</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.652472746449632</v>
+        <v>3.403942850770932</v>
       </c>
       <c r="C15">
-        <v>1.221043161239891</v>
+        <v>1.26111339072088</v>
       </c>
       <c r="D15">
-        <v>0.04967817840579869</v>
+        <v>0.06174262883160253</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9000246849043521</v>
+        <v>0.7808301960254909</v>
       </c>
       <c r="G15">
-        <v>0.7667536229613034</v>
+        <v>0.7337557139455697</v>
       </c>
       <c r="H15">
-        <v>0.1752680724032416</v>
+        <v>0.1752098451207189</v>
       </c>
       <c r="I15">
-        <v>0.02670868032607565</v>
+        <v>0.02208494137291606</v>
       </c>
       <c r="J15">
-        <v>0.4375415442835759</v>
+        <v>0.3310530846491133</v>
       </c>
       <c r="K15">
-        <v>0.2747906139331278</v>
+        <v>0.2191759210237585</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1160076347092449</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07433317724846589</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.236258142743015</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6836091957025303</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2352232832624814</v>
+      </c>
+      <c r="R15">
+        <v>0.7773159264305178</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.414018285711904</v>
+        <v>3.208038452788287</v>
       </c>
       <c r="C16">
-        <v>1.145073371705337</v>
+        <v>1.195552536449895</v>
       </c>
       <c r="D16">
-        <v>0.04709727997952484</v>
+        <v>0.05668411862770029</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8495086025582879</v>
+        <v>0.7558902816310251</v>
       </c>
       <c r="G16">
-        <v>0.7222915772499192</v>
+        <v>0.6577958810229063</v>
       </c>
       <c r="H16">
-        <v>0.1621862776231779</v>
+        <v>0.1621567500359191</v>
       </c>
       <c r="I16">
-        <v>0.02332940685013618</v>
+        <v>0.01965653678316315</v>
       </c>
       <c r="J16">
-        <v>0.4205914301483631</v>
+        <v>0.3780477459041265</v>
       </c>
       <c r="K16">
-        <v>0.2686487695636295</v>
+        <v>0.2226306169652972</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1209401671116304</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07004497297181445</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2314066085362469</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6885104492333909</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2304856720547939</v>
+      </c>
+      <c r="R16">
+        <v>0.7655866014228394</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.194586436891655</v>
+        <v>3.007285426008877</v>
       </c>
       <c r="C17">
-        <v>1.079405818918616</v>
+        <v>1.134501331910684</v>
       </c>
       <c r="D17">
-        <v>0.043894670296865</v>
+        <v>0.05233583209013659</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8410833873012109</v>
+        <v>0.7561440555161738</v>
       </c>
       <c r="G17">
-        <v>0.7192509296820617</v>
+        <v>0.6390328706975907</v>
       </c>
       <c r="H17">
-        <v>0.1242785594890847</v>
+        <v>0.1242537770972802</v>
       </c>
       <c r="I17">
-        <v>0.02139720141273482</v>
+        <v>0.01823248236613573</v>
       </c>
       <c r="J17">
-        <v>0.4227671732780607</v>
+        <v>0.4074248923450483</v>
       </c>
       <c r="K17">
-        <v>0.2791848111577089</v>
+        <v>0.2347994553090089</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.127661043959904</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07137929540446919</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3888242865685925</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6660003789282527</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.387663445175022</v>
+      </c>
+      <c r="R17">
+        <v>0.7306375419488944</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.973969998196992</v>
+        <v>2.79186381825258</v>
       </c>
       <c r="C18">
-        <v>1.013881355972927</v>
+        <v>1.072243228943393</v>
       </c>
       <c r="D18">
-        <v>0.03978859724847439</v>
+        <v>0.04771605777006016</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8699161497338821</v>
+        <v>0.7835679300470844</v>
       </c>
       <c r="G18">
-        <v>0.7540275065493631</v>
+        <v>0.6611183102701972</v>
       </c>
       <c r="H18">
-        <v>0.07162254845625426</v>
+        <v>0.071579244463436</v>
       </c>
       <c r="I18">
-        <v>0.02025473702366831</v>
+        <v>0.01726801158437485</v>
       </c>
       <c r="J18">
-        <v>0.4428008445723606</v>
+        <v>0.4363601220743476</v>
       </c>
       <c r="K18">
-        <v>0.3073106313248957</v>
+        <v>0.2588465361841479</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1378608253625835</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07869659407793606</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.829620273919879</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.625734218861318</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8278255282319762</v>
+      </c>
+      <c r="R18">
+        <v>0.677489569769719</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.764179592140749</v>
+        <v>2.579246944196427</v>
       </c>
       <c r="C19">
-        <v>0.958024366400366</v>
+        <v>1.019585467408291</v>
       </c>
       <c r="D19">
-        <v>0.03577362480410784</v>
+        <v>0.04356246631346039</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9228504009258813</v>
+        <v>0.8286419299185468</v>
       </c>
       <c r="G19">
-        <v>0.8130586365359704</v>
+        <v>0.7078341417427083</v>
       </c>
       <c r="H19">
-        <v>0.0273379133798386</v>
+        <v>0.02724631306438141</v>
       </c>
       <c r="I19">
-        <v>0.02031142178134981</v>
+        <v>0.0173509365160589</v>
       </c>
       <c r="J19">
-        <v>0.4737126543659542</v>
+        <v>0.4656222700850208</v>
       </c>
       <c r="K19">
-        <v>0.346138846864811</v>
+        <v>0.2897991160419622</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1497494427917943</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08996553683183706</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.664529506729593</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5894784960445527</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.661631608389058</v>
+      </c>
+      <c r="R19">
+        <v>0.6269334549076859</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.603040329062708</v>
+        <v>2.394193439801541</v>
       </c>
       <c r="C20">
-        <v>0.9227965377646115</v>
+        <v>0.9883798597407747</v>
       </c>
       <c r="D20">
-        <v>0.03143681313392577</v>
+        <v>0.03990081030232773</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.050403437191719</v>
+        <v>0.9297303535118715</v>
       </c>
       <c r="G20">
-        <v>0.9476994843236781</v>
+        <v>0.8303293275182284</v>
       </c>
       <c r="H20">
-        <v>0.006324236010851081</v>
+        <v>0.006075426161496367</v>
       </c>
       <c r="I20">
-        <v>0.02303748708851305</v>
+        <v>0.01944041615496417</v>
       </c>
       <c r="J20">
-        <v>0.5388229275093437</v>
+        <v>0.498898026703344</v>
       </c>
       <c r="K20">
-        <v>0.4190516330526535</v>
+        <v>0.3430528807552591</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1665646198915667</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1143598653460174</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.581993684983289</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5574931185512222</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.576163621494842</v>
+      </c>
+      <c r="R20">
+        <v>0.5728892455801073</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.913017193687551</v>
+        <v>2.626292983193252</v>
       </c>
       <c r="C21">
-        <v>1.030082923085644</v>
+        <v>1.078518520724117</v>
       </c>
       <c r="D21">
-        <v>0.03372213926455458</v>
+        <v>0.04623965229770732</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.179015788323525</v>
+        <v>0.9970163775521428</v>
       </c>
       <c r="G21">
-        <v>1.069047412299881</v>
+        <v>1.020621864134156</v>
       </c>
       <c r="H21">
-        <v>0.01041985306716901</v>
+        <v>0.009994790787472976</v>
       </c>
       <c r="I21">
-        <v>0.02972243507080741</v>
+        <v>0.02427927903912774</v>
       </c>
       <c r="J21">
-        <v>0.5899934029567646</v>
+        <v>0.3975644640358382</v>
       </c>
       <c r="K21">
-        <v>0.4550971904948042</v>
+        <v>0.3498786276148351</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1598282129076978</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1297905933023102</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.22167508195308</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5225981217595548</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.213064820694981</v>
+      </c>
+      <c r="R21">
+        <v>0.5430072240820252</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.133422709162346</v>
+        <v>2.791895834380284</v>
       </c>
       <c r="C22">
-        <v>1.101976330918234</v>
+        <v>1.136821031372676</v>
       </c>
       <c r="D22">
-        <v>0.0352862954177624</v>
+        <v>0.05072851846656334</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.263287373529508</v>
+        <v>1.038282629088513</v>
       </c>
       <c r="G22">
-        <v>1.148350957921878</v>
+        <v>1.155085578421875</v>
       </c>
       <c r="H22">
-        <v>0.01320778537171607</v>
+        <v>0.01265399639439002</v>
       </c>
       <c r="I22">
-        <v>0.03424541186301244</v>
+        <v>0.02738202972655213</v>
       </c>
       <c r="J22">
-        <v>0.6234723206923718</v>
+        <v>0.3327691589637709</v>
       </c>
       <c r="K22">
-        <v>0.478302779837172</v>
+        <v>0.3529817939479827</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.155048215428625</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1396961035101079</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.53855502894298</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5005670736338521</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.52808045759835</v>
+      </c>
+      <c r="R22">
+        <v>0.5257948857583123</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.020693042320715</v>
+        <v>2.712632365096795</v>
       </c>
       <c r="C23">
-        <v>1.06132319140454</v>
+        <v>1.106776141304181</v>
       </c>
       <c r="D23">
-        <v>0.0342926793785665</v>
+        <v>0.04782021420331262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.221267277910883</v>
+        <v>1.023344488970835</v>
       </c>
       <c r="G23">
-        <v>1.109333894003527</v>
+        <v>1.075736869655827</v>
       </c>
       <c r="H23">
-        <v>0.01168574521113547</v>
+        <v>0.01120536502524472</v>
       </c>
       <c r="I23">
-        <v>0.03159091423083282</v>
+        <v>0.0254601588939547</v>
       </c>
       <c r="J23">
-        <v>0.6072589731760445</v>
+        <v>0.3812258660304622</v>
       </c>
       <c r="K23">
-        <v>0.4680629470535678</v>
+        <v>0.3548887685706106</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1588000653046073</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1358758096296846</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.369265196747705</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5124415266172497</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.359856207660513</v>
+      </c>
+      <c r="R23">
+        <v>0.5342048408922366</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.586454422838926</v>
+        <v>2.377524600527977</v>
       </c>
       <c r="C24">
-        <v>0.9125780817135762</v>
+        <v>0.9783823980357624</v>
       </c>
       <c r="D24">
-        <v>0.03078868588304928</v>
+        <v>0.03915825990475952</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.060261812132865</v>
+        <v>0.9386236185743257</v>
       </c>
       <c r="G24">
-        <v>0.9589896005136183</v>
+        <v>0.8393532670321235</v>
       </c>
       <c r="H24">
-        <v>0.006702828219662615</v>
+        <v>0.006443252397507093</v>
       </c>
       <c r="I24">
-        <v>0.02268161562863469</v>
+        <v>0.01897446313343742</v>
       </c>
       <c r="J24">
-        <v>0.5446575158291864</v>
+        <v>0.5051609413807796</v>
       </c>
       <c r="K24">
-        <v>0.4269363507159412</v>
+        <v>0.3496402792812958</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.169106734770466</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1167735505560294</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.732780780077988</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5583890587808766</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.726746723038545</v>
+      </c>
+      <c r="R24">
+        <v>0.5710416735094217</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.119135386430116</v>
+        <v>1.964923314467626</v>
       </c>
       <c r="C25">
-        <v>0.7547943021617129</v>
+        <v>0.8052691715443245</v>
       </c>
       <c r="D25">
-        <v>0.02699930273792717</v>
+        <v>0.0331517135560162</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8924832300141077</v>
+        <v>0.802584731891983</v>
       </c>
       <c r="G25">
-        <v>0.8024096634985511</v>
+        <v>0.6999155459036785</v>
       </c>
       <c r="H25">
-        <v>0.002780693734112605</v>
+        <v>0.002667230857690495</v>
       </c>
       <c r="I25">
-        <v>0.01462105136500291</v>
+        <v>0.01268845008832198</v>
       </c>
       <c r="J25">
-        <v>0.4801784158867548</v>
+        <v>0.4701489684749163</v>
       </c>
       <c r="K25">
-        <v>0.3849374328386759</v>
+        <v>0.3255419185816137</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1735445774336739</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0908051883040315</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.054210368736918</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6103415758193296</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.050612583894761</v>
+      </c>
+      <c r="R25">
+        <v>0.6165053097559596</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
